--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,4300 +394,3853 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1722578062395444</v>
+        <v>0.2009562222241367</v>
       </c>
       <c r="C2">
-        <v>0.2103825747486485</v>
+        <v>0.2370380373295622</v>
       </c>
       <c r="D2">
-        <v>4.99729105650904E-06</v>
+        <v>5.629745308248155E-06</v>
       </c>
       <c r="E2">
-        <v>4.99729105650904E-06</v>
+        <v>5.629745308248155E-06</v>
       </c>
       <c r="F2">
-        <v>4.033554317818941E-06</v>
+        <v>4.421644867087056E-06</v>
       </c>
       <c r="G2">
-        <v>0.4342149235672818</v>
+        <v>0.4474413318613511</v>
       </c>
       <c r="H2">
-        <v>0.1014104387708942</v>
-      </c>
-      <c r="I2">
-        <v>0.08172022853720036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1145487274494664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008420937341531071</v>
+        <v>0.009040979322344314</v>
       </c>
       <c r="C3">
-        <v>0.00730800860464515</v>
+        <v>0.00784609647894108</v>
       </c>
       <c r="D3">
-        <v>0.02166625904232086</v>
+        <v>0.02333768566944681</v>
       </c>
       <c r="E3">
-        <v>0.02166625904232086</v>
+        <v>0.02333768566944681</v>
       </c>
       <c r="F3">
-        <v>0.9041921239755244</v>
+        <v>0.9066655753346113</v>
       </c>
       <c r="G3">
-        <v>0.02325286944680946</v>
+        <v>0.02292893797447481</v>
       </c>
       <c r="H3">
-        <v>0.006373748910235471</v>
-      </c>
-      <c r="I3">
-        <v>0.007119793636612765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.006843039550734809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004612907364862391</v>
+        <v>0.005060002060013555</v>
       </c>
       <c r="C4">
-        <v>0.005137455499368096</v>
+        <v>0.005269275182012067</v>
       </c>
       <c r="D4">
-        <v>0.03134459151682588</v>
+        <v>0.03713619251111308</v>
       </c>
       <c r="E4">
-        <v>0.3447847080371303</v>
+        <v>0.3342209978064944</v>
       </c>
       <c r="F4">
-        <v>0.5884005005900558</v>
+        <v>0.5982360766387663</v>
       </c>
       <c r="G4">
-        <v>0.0098837882332731</v>
+        <v>0.01016825488791167</v>
       </c>
       <c r="H4">
-        <v>0.009881207931565016</v>
-      </c>
-      <c r="I4">
-        <v>0.005954840826919485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.009909200913688968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0059584691070746</v>
+        <v>0.006062794701413086</v>
       </c>
       <c r="C5">
-        <v>0.003666484992900558</v>
+        <v>0.003730569956371836</v>
       </c>
       <c r="D5">
-        <v>2.560875275629579E-06</v>
+        <v>2.280109239058581E-06</v>
       </c>
       <c r="E5">
-        <v>2.560875275629579E-06</v>
+        <v>2.280109239058581E-06</v>
       </c>
       <c r="F5">
-        <v>4.737843541706907E-06</v>
+        <v>4.21842871654982E-06</v>
       </c>
       <c r="G5">
-        <v>0.9885050156198695</v>
+        <v>0.990020497450728</v>
       </c>
       <c r="H5">
-        <v>0.0001745820261241453</v>
-      </c>
-      <c r="I5">
-        <v>0.001685588659938198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0001773592442924867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.008481725761634928</v>
+        <v>0.009112149833633936</v>
       </c>
       <c r="C6">
-        <v>0.007360763099681093</v>
+        <v>0.00790786088278767</v>
       </c>
       <c r="D6">
-        <v>0.02203350739935632</v>
+        <v>0.02374940818852782</v>
       </c>
       <c r="E6">
-        <v>0.02203350739935632</v>
+        <v>0.02374940818852782</v>
       </c>
       <c r="F6">
-        <v>0.9045629333060771</v>
+        <v>0.9070761633757725</v>
       </c>
       <c r="G6">
-        <v>0.02154016287086528</v>
+        <v>0.02108218011819463</v>
       </c>
       <c r="H6">
-        <v>0.006816210703233972</v>
-      </c>
-      <c r="I6">
-        <v>0.007171189459795141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.007322829412555587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.004962213538864454</v>
+        <v>0.004344648891424134</v>
       </c>
       <c r="C7">
-        <v>0.06047205318360044</v>
+        <v>0.07204492964318579</v>
       </c>
       <c r="D7">
-        <v>0.05767886169152876</v>
+        <v>0.0611973400380744</v>
       </c>
       <c r="E7">
-        <v>0.05767886169152876</v>
+        <v>0.0611973400380744</v>
       </c>
       <c r="F7">
-        <v>0.7198710565234825</v>
+        <v>0.750992303731231</v>
       </c>
       <c r="G7">
-        <v>0.04466472996118868</v>
+        <v>0.04483824120955884</v>
       </c>
       <c r="H7">
-        <v>0.006290973103338332</v>
-      </c>
-      <c r="I7">
-        <v>0.04838125030646807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.005385196448451524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.008765638088191289</v>
+        <v>0.008169392308207036</v>
       </c>
       <c r="C8">
-        <v>0.00846219799873346</v>
+        <v>0.008128756457907976</v>
       </c>
       <c r="D8">
-        <v>0.02628953309851542</v>
+        <v>0.03013652172039501</v>
       </c>
       <c r="E8">
-        <v>0.2333192950238101</v>
+        <v>0.2179905887228411</v>
       </c>
       <c r="F8">
-        <v>0.6843211949219148</v>
+        <v>0.7050173405538436</v>
       </c>
       <c r="G8">
-        <v>0.01410480336781106</v>
+        <v>0.0148463777542476</v>
       </c>
       <c r="H8">
-        <v>0.01637669825946294</v>
-      </c>
-      <c r="I8">
-        <v>0.008360639241560965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.01571102248255771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0059584691070746</v>
+        <v>0.006062794701413086</v>
       </c>
       <c r="C9">
-        <v>0.003666484992900558</v>
+        <v>0.003730569956371836</v>
       </c>
       <c r="D9">
-        <v>2.560875275629579E-06</v>
+        <v>2.280109239058581E-06</v>
       </c>
       <c r="E9">
-        <v>2.560875275629579E-06</v>
+        <v>2.280109239058581E-06</v>
       </c>
       <c r="F9">
-        <v>4.737843541706907E-06</v>
+        <v>4.21842871654982E-06</v>
       </c>
       <c r="G9">
-        <v>0.9885050156198695</v>
+        <v>0.990020497450728</v>
       </c>
       <c r="H9">
-        <v>0.0001745820261241453</v>
-      </c>
-      <c r="I9">
-        <v>0.001685588659938198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.0001773592442924867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.008662423539780927</v>
+        <v>0.009324279272759375</v>
       </c>
       <c r="C10">
-        <v>0.007517579480562883</v>
+        <v>0.008091954661355266</v>
       </c>
       <c r="D10">
-        <v>0.0225029172746244</v>
+        <v>0.02430229073881227</v>
       </c>
       <c r="E10">
-        <v>0.0225029172746244</v>
+        <v>0.02430229073881227</v>
       </c>
       <c r="F10">
-        <v>0.9005482243608531</v>
+        <v>0.9027727324136249</v>
       </c>
       <c r="G10">
-        <v>0.02398054523350919</v>
+        <v>0.02371314842567696</v>
       </c>
       <c r="H10">
-        <v>0.006961425741312725</v>
-      </c>
-      <c r="I10">
-        <v>0.007323967094732398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.007493303748958942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.007281536644373061</v>
+        <v>0.007352575633507033</v>
       </c>
       <c r="C11">
-        <v>0.004480621507318166</v>
+        <v>0.004524200325292207</v>
       </c>
       <c r="D11">
-        <v>2.766429398596186E-06</v>
+        <v>2.444357537638323E-06</v>
       </c>
       <c r="E11">
-        <v>2.766429398596186E-06</v>
+        <v>2.444357537638323E-06</v>
       </c>
       <c r="F11">
-        <v>5.282878223238464E-06</v>
+        <v>4.667869503848895E-06</v>
       </c>
       <c r="G11">
-        <v>0.9859538078110929</v>
+        <v>0.9878985773336362</v>
       </c>
       <c r="H11">
-        <v>0.000213347656558714</v>
-      </c>
-      <c r="I11">
-        <v>0.002059870643636788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0002150901229853977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02983246624016742</v>
+        <v>0.03019463410512486</v>
       </c>
       <c r="C12">
-        <v>0.03437355557643679</v>
+        <v>0.03479101373586366</v>
       </c>
       <c r="D12">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="E12">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="F12">
-        <v>1.598450446232862E-05</v>
+        <v>1.41568308404839E-05</v>
       </c>
       <c r="G12">
-        <v>0.8757124546029076</v>
+        <v>0.8979848763639845</v>
       </c>
       <c r="H12">
-        <v>0.03654400367437213</v>
-      </c>
-      <c r="I12">
-        <v>0.02349056331598011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.03698788824948453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02983246624016742</v>
+        <v>0.03019463410512486</v>
       </c>
       <c r="C13">
-        <v>0.03437355557643679</v>
+        <v>0.03479101373586366</v>
       </c>
       <c r="D13">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="E13">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="F13">
-        <v>1.598450446232862E-05</v>
+        <v>1.41568308404839E-05</v>
       </c>
       <c r="G13">
-        <v>0.8757124546029076</v>
+        <v>0.8979848763639845</v>
       </c>
       <c r="H13">
-        <v>0.03654400367437213</v>
-      </c>
-      <c r="I13">
-        <v>0.02349056331598011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.03698788824948453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02983246624016742</v>
+        <v>0.03019463410512486</v>
       </c>
       <c r="C14">
-        <v>0.03437355557643679</v>
+        <v>0.03479101373586366</v>
       </c>
       <c r="D14">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="E14">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="F14">
-        <v>1.598450446232862E-05</v>
+        <v>1.41568308404839E-05</v>
       </c>
       <c r="G14">
-        <v>0.8757124546029076</v>
+        <v>0.8979848763639845</v>
       </c>
       <c r="H14">
-        <v>0.03654400367437213</v>
-      </c>
-      <c r="I14">
-        <v>0.02349056331598011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.03698788824948453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3035830013796089</v>
+        <v>0.3502490330934044</v>
       </c>
       <c r="C15">
-        <v>0.1285547029040932</v>
+        <v>0.1615784290319083</v>
       </c>
       <c r="D15">
-        <v>2.39607984234577E-06</v>
+        <v>2.987435902627063E-06</v>
       </c>
       <c r="E15">
-        <v>2.39607984234577E-06</v>
+        <v>2.987435902627063E-06</v>
       </c>
       <c r="F15">
-        <v>1.825716618839758E-06</v>
+        <v>2.170279243291571E-06</v>
       </c>
       <c r="G15">
-        <v>0.1118476967520135</v>
+        <v>0.1349636759852462</v>
       </c>
       <c r="H15">
-        <v>0.3089532318629267</v>
-      </c>
-      <c r="I15">
-        <v>0.1470547492250541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.3532007167383925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3055115520307422</v>
+        <v>0.3415265990215222</v>
       </c>
       <c r="C16">
-        <v>0.1384996416196909</v>
+        <v>0.1660149644695539</v>
       </c>
       <c r="D16">
-        <v>2.541584861004401E-06</v>
+        <v>3.017755708158673E-06</v>
       </c>
       <c r="E16">
-        <v>2.541584861004401E-06</v>
+        <v>3.017755708158673E-06</v>
       </c>
       <c r="F16">
-        <v>1.936585599912433E-06</v>
+        <v>2.19230563875265E-06</v>
       </c>
       <c r="G16">
-        <v>0.118639791454039</v>
+        <v>0.1363334367242484</v>
       </c>
       <c r="H16">
-        <v>0.2481357147426366</v>
-      </c>
-      <c r="I16">
-        <v>0.1892062803975694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.3561167719676204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02983246624016742</v>
+        <v>0.03019463410512486</v>
       </c>
       <c r="C17">
-        <v>0.03437355557643679</v>
+        <v>0.03479101373586366</v>
       </c>
       <c r="D17">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="E17">
-        <v>1.548604283683082E-05</v>
+        <v>1.371535735100253E-05</v>
       </c>
       <c r="F17">
-        <v>1.598450446232862E-05</v>
+        <v>1.41568308404839E-05</v>
       </c>
       <c r="G17">
-        <v>0.8757124546029076</v>
+        <v>0.8979848763639845</v>
       </c>
       <c r="H17">
-        <v>0.03654400367437213</v>
-      </c>
-      <c r="I17">
-        <v>0.02349056331598011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.03698788824948453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.004333793484422165</v>
+        <v>0.003731696308274595</v>
       </c>
       <c r="C18">
-        <v>0.04822507914670519</v>
+        <v>0.06613453728957348</v>
       </c>
       <c r="D18">
-        <v>0.06460070655191973</v>
+        <v>0.06897490265734174</v>
       </c>
       <c r="E18">
-        <v>0.06460070655191973</v>
+        <v>0.06897490265734174</v>
       </c>
       <c r="F18">
-        <v>0.7224283671096642</v>
+        <v>0.7484565326696979</v>
       </c>
       <c r="G18">
-        <v>0.03986113975164073</v>
+        <v>0.03867337608951124</v>
       </c>
       <c r="H18">
-        <v>0.005955879989878291</v>
-      </c>
-      <c r="I18">
-        <v>0.04999432741385002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.005054052328259425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01967875882402058</v>
+        <v>0.0205339477214748</v>
       </c>
       <c r="C19">
-        <v>0.01311974484687105</v>
+        <v>0.01425449065321846</v>
       </c>
       <c r="D19">
-        <v>0.09174061282036973</v>
+        <v>0.08206192052404801</v>
       </c>
       <c r="E19">
-        <v>0.393542899813434</v>
+        <v>0.3753101916337382</v>
       </c>
       <c r="F19">
-        <v>0.3369813435852455</v>
+        <v>0.3873541141914548</v>
       </c>
       <c r="G19">
-        <v>0.09101899901467538</v>
+        <v>0.09239155302788238</v>
       </c>
       <c r="H19">
-        <v>0.02677936430891201</v>
-      </c>
-      <c r="I19">
-        <v>0.02713827678647184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.02809378224818336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.009406559969841759</v>
+        <v>0.009478729551069464</v>
       </c>
       <c r="C20">
-        <v>0.005446095302413934</v>
+        <v>0.005506864317658561</v>
       </c>
       <c r="D20">
-        <v>0.02043415599640318</v>
+        <v>0.02309056135522437</v>
       </c>
       <c r="E20">
-        <v>0.1070440473991286</v>
+        <v>0.08967345381563914</v>
       </c>
       <c r="F20">
-        <v>0.8232914570158887</v>
+        <v>0.8478870417227219</v>
       </c>
       <c r="G20">
-        <v>0.01343210800612229</v>
+        <v>0.0128508407979266</v>
       </c>
       <c r="H20">
-        <v>0.01214344621524078</v>
-      </c>
-      <c r="I20">
-        <v>0.008802130094960893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.01151250843976001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.004226920689255385</v>
+        <v>0.003645823041401326</v>
       </c>
       <c r="C21">
-        <v>0.04633523012068658</v>
+        <v>0.06359208001450663</v>
       </c>
       <c r="D21">
-        <v>0.06289187970130447</v>
+        <v>0.06726010487842055</v>
       </c>
       <c r="E21">
-        <v>0.06289187970130447</v>
+        <v>0.06726010487842055</v>
       </c>
       <c r="F21">
-        <v>0.7263628209254425</v>
+        <v>0.7554722269149893</v>
       </c>
       <c r="G21">
-        <v>0.03900126293952335</v>
+        <v>0.037920756168967</v>
       </c>
       <c r="H21">
-        <v>0.005664205021788647</v>
-      </c>
-      <c r="I21">
-        <v>0.05262580090069451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.004848904103294564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01200182308765862</v>
+        <v>0.01278254000384922</v>
       </c>
       <c r="C22">
-        <v>0.01177941902951584</v>
+        <v>0.01299171645032009</v>
       </c>
       <c r="D22">
-        <v>0.04049434014402491</v>
+        <v>0.0361465070249132</v>
       </c>
       <c r="E22">
-        <v>0.08098858855200708</v>
+        <v>0.07229290817946858</v>
       </c>
       <c r="F22">
-        <v>0.7937858922237512</v>
+        <v>0.8239072806221502</v>
       </c>
       <c r="G22">
-        <v>0.02499369986266828</v>
+        <v>0.02682517408309174</v>
       </c>
       <c r="H22">
-        <v>0.01524529609397863</v>
-      </c>
-      <c r="I22">
-        <v>0.02071094100639556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.01505387363620703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03026152851593473</v>
+        <v>0.03073864017298076</v>
       </c>
       <c r="C23">
-        <v>0.03486792958705689</v>
+        <v>0.03541783115359669</v>
       </c>
       <c r="D23">
-        <v>1.570876920241887E-05</v>
+        <v>1.396246210464123E-05</v>
       </c>
       <c r="E23">
-        <v>1.570876920241887E-05</v>
+        <v>1.396246210464123E-05</v>
       </c>
       <c r="F23">
-        <v>1.961384419799722E-05</v>
+        <v>1.743347927205678E-05</v>
       </c>
       <c r="G23">
-        <v>0.873921502743455</v>
+        <v>0.8961438842898254</v>
       </c>
       <c r="H23">
-        <v>0.03706959392413376</v>
-      </c>
-      <c r="I23">
-        <v>0.02382841384681688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.03765428598011577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06862652925641993</v>
+        <v>0.0698155750599567</v>
       </c>
       <c r="C24">
-        <v>0.07907283958432387</v>
+        <v>0.0804432543355746</v>
       </c>
       <c r="D24">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="E24">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="F24">
-        <v>2.404205621163349E-05</v>
+        <v>2.14021142351061E-05</v>
       </c>
       <c r="G24">
-        <v>0.7141347136389535</v>
+        <v>0.7641626523425692</v>
       </c>
       <c r="H24">
-        <v>0.08406573285346795</v>
-      </c>
-      <c r="I24">
-        <v>0.05403763194352807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.08552283426918181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.06862652925641993</v>
+        <v>0.0698155750599567</v>
       </c>
       <c r="C25">
-        <v>0.07907283958432387</v>
+        <v>0.0804432543355746</v>
       </c>
       <c r="D25">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="E25">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="F25">
-        <v>2.404205621163349E-05</v>
+        <v>2.14021142351061E-05</v>
       </c>
       <c r="G25">
-        <v>0.7141347136389535</v>
+        <v>0.7641626523425692</v>
       </c>
       <c r="H25">
-        <v>0.08406573285346795</v>
-      </c>
-      <c r="I25">
-        <v>0.05403763194352807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.08552283426918181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5037522044870251</v>
+        <v>0.5176595677540718</v>
       </c>
       <c r="C26">
-        <v>0.1308921297844718</v>
+        <v>0.1487830931599376</v>
       </c>
       <c r="D26">
-        <v>1.535191775038442E-06</v>
+        <v>1.723733497347214E-06</v>
       </c>
       <c r="E26">
-        <v>1.535191775038442E-06</v>
+        <v>1.723733497347214E-06</v>
       </c>
       <c r="F26">
-        <v>1.535191775038442E-06</v>
+        <v>1.723733497347214E-06</v>
       </c>
       <c r="G26">
-        <v>0.08754272124274669</v>
+        <v>0.1110654366286643</v>
       </c>
       <c r="H26">
-        <v>0.1929524615439117</v>
-      </c>
-      <c r="I26">
-        <v>0.08485587736651955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.2224867312568342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.06862652925641993</v>
+        <v>0.0698155750599567</v>
       </c>
       <c r="C27">
-        <v>0.07907283958432387</v>
+        <v>0.0804432543355746</v>
       </c>
       <c r="D27">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="E27">
-        <v>1.925533354744889E-05</v>
+        <v>1.714093924130477E-05</v>
       </c>
       <c r="F27">
-        <v>2.404205621163349E-05</v>
+        <v>2.14021142351061E-05</v>
       </c>
       <c r="G27">
-        <v>0.7141347136389535</v>
+        <v>0.7641626523425692</v>
       </c>
       <c r="H27">
-        <v>0.08406573285346795</v>
-      </c>
-      <c r="I27">
-        <v>0.05403763194352807</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.08552283426918181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.008850415031399357</v>
+        <v>0.009380447134168426</v>
       </c>
       <c r="C28">
-        <v>0.007680725622450429</v>
+        <v>0.008140699210360265</v>
       </c>
       <c r="D28">
-        <v>0.02379617293437882</v>
+        <v>0.02530752828059959</v>
       </c>
       <c r="E28">
-        <v>0.02379617293437882</v>
+        <v>0.02530752828059959</v>
       </c>
       <c r="F28">
-        <v>0.9024873756259408</v>
+        <v>0.9082108807365687</v>
       </c>
       <c r="G28">
-        <v>0.01722179023983147</v>
+        <v>0.01611447423030739</v>
       </c>
       <c r="H28">
-        <v>0.007112502261975835</v>
-      </c>
-      <c r="I28">
-        <v>0.009054845349644323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.007538442127396087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1264927483474022</v>
+        <v>0.1327241915549093</v>
       </c>
       <c r="C29">
-        <v>0.08384602674925404</v>
+        <v>0.08797565119861349</v>
       </c>
       <c r="D29">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="E29">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="F29">
-        <v>2.549334131447238E-05</v>
+        <v>2.340612587608742E-05</v>
       </c>
       <c r="G29">
-        <v>0.6431013693979467</v>
+        <v>0.6856521219600287</v>
       </c>
       <c r="H29">
-        <v>0.08919394384014465</v>
-      </c>
-      <c r="I29">
-        <v>0.05729958298224103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.09358713725887453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.003921550166778946</v>
+        <v>0.003586234642857465</v>
       </c>
       <c r="C30">
-        <v>0.04394437899364719</v>
+        <v>0.06336593102010535</v>
       </c>
       <c r="D30">
-        <v>0.06164558484239929</v>
+        <v>0.06702091149021702</v>
       </c>
       <c r="E30">
-        <v>0.06164558484239929</v>
+        <v>0.06702091149021702</v>
       </c>
       <c r="F30">
-        <v>0.7119688760518174</v>
+        <v>0.7527855828489994</v>
       </c>
       <c r="G30">
-        <v>0.04152962565537034</v>
+        <v>0.04138876829358988</v>
       </c>
       <c r="H30">
-        <v>0.00530701019876935</v>
-      </c>
-      <c r="I30">
-        <v>0.07003738924881843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.004831660214013726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.304122186664035</v>
+        <v>0.3442588873286822</v>
       </c>
       <c r="C31">
-        <v>0.1394332740715227</v>
+        <v>0.1681469333773572</v>
       </c>
       <c r="D31">
-        <v>2.548188123208258E-06</v>
+        <v>3.041898421080275E-06</v>
       </c>
       <c r="E31">
-        <v>2.548188123208258E-06</v>
+        <v>3.041898421080275E-06</v>
       </c>
       <c r="F31">
-        <v>2.05003693089692E-06</v>
+        <v>2.352830917397371E-06</v>
       </c>
       <c r="G31">
-        <v>0.1130457024413899</v>
+        <v>0.1292707049887678</v>
       </c>
       <c r="H31">
-        <v>0.2483443251736884</v>
-      </c>
-      <c r="I31">
-        <v>0.1950473652361867</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.3583150376774331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.008591590537222242</v>
+        <v>0.008633666652651998</v>
       </c>
       <c r="C32">
-        <v>0.005406521440149038</v>
+        <v>0.005631242404771235</v>
       </c>
       <c r="D32">
-        <v>0.02052434957846396</v>
+        <v>0.02320484188754022</v>
       </c>
       <c r="E32">
-        <v>0.107292540762232</v>
+        <v>0.08992502362575445</v>
       </c>
       <c r="F32">
-        <v>0.823666739441104</v>
+        <v>0.8486802135446597</v>
       </c>
       <c r="G32">
-        <v>0.01408292868248599</v>
+        <v>0.01357934220012167</v>
       </c>
       <c r="H32">
-        <v>0.01110634826998687</v>
-      </c>
-      <c r="I32">
-        <v>0.009328981288355747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.01034566968450066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.004713933245513789</v>
+        <v>0.004202740611468857</v>
       </c>
       <c r="C33">
-        <v>0.007564023343825511</v>
+        <v>0.007883782845269343</v>
       </c>
       <c r="D33">
-        <v>0.03062705379897676</v>
+        <v>0.03256037887860884</v>
       </c>
       <c r="E33">
-        <v>0.3428575283367505</v>
+        <v>0.3784514826057602</v>
       </c>
       <c r="F33">
-        <v>0.5709164619922351</v>
+        <v>0.5467676829840475</v>
       </c>
       <c r="G33">
-        <v>0.01436866970926058</v>
+        <v>0.01359306292901698</v>
       </c>
       <c r="H33">
-        <v>0.01797213255606929</v>
-      </c>
-      <c r="I33">
-        <v>0.01098019701736851</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.01654086914582827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.004840567108297489</v>
+        <v>0.004429444435243167</v>
       </c>
       <c r="C34">
-        <v>0.01459308470878173</v>
+        <v>0.01527938737280856</v>
       </c>
       <c r="D34">
-        <v>0.01652276973492608</v>
+        <v>0.01764217230146839</v>
       </c>
       <c r="E34">
-        <v>0.1335456689766313</v>
+        <v>0.1267886341345245</v>
       </c>
       <c r="F34">
-        <v>0.7956697844514877</v>
+        <v>0.8109747571163096</v>
       </c>
       <c r="G34">
-        <v>0.01529561785681091</v>
+        <v>0.01487129043005555</v>
       </c>
       <c r="H34">
-        <v>0.01081224191182318</v>
-      </c>
-      <c r="I34">
-        <v>0.008720265251241461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.01001431420959011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1264927483474022</v>
+        <v>0.1327241915549093</v>
       </c>
       <c r="C35">
-        <v>0.08384602674925404</v>
+        <v>0.08797565119861349</v>
       </c>
       <c r="D35">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="E35">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="F35">
-        <v>2.549334131447238E-05</v>
+        <v>2.340612587608742E-05</v>
       </c>
       <c r="G35">
-        <v>0.6431013693979467</v>
+        <v>0.6856521219600287</v>
       </c>
       <c r="H35">
-        <v>0.08919394384014465</v>
-      </c>
-      <c r="I35">
-        <v>0.05729958298224103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.09358713725887453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1264927483474022</v>
+        <v>0.1327241915549093</v>
       </c>
       <c r="C36">
-        <v>0.08384602674925404</v>
+        <v>0.08797565119861349</v>
       </c>
       <c r="D36">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="E36">
-        <v>2.041767084845247E-05</v>
+        <v>1.8745950849017E-05</v>
       </c>
       <c r="F36">
-        <v>2.549334131447238E-05</v>
+        <v>2.340612587608742E-05</v>
       </c>
       <c r="G36">
-        <v>0.6431013693979467</v>
+        <v>0.6856521219600287</v>
       </c>
       <c r="H36">
-        <v>0.08919394384014465</v>
-      </c>
-      <c r="I36">
-        <v>0.05729958298224103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.09358713725887453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.504607929232877</v>
+        <v>0.5188576875370952</v>
       </c>
       <c r="C37">
-        <v>0.1311144764729749</v>
+        <v>0.1491274506844546</v>
       </c>
       <c r="D37">
-        <v>1.555564760230468E-06</v>
+        <v>1.750289260579951E-06</v>
       </c>
       <c r="E37">
-        <v>1.555564760230468E-06</v>
+        <v>1.750289260579951E-06</v>
       </c>
       <c r="F37">
-        <v>1.537799607976596E-06</v>
+        <v>1.727723067583097E-06</v>
       </c>
       <c r="G37">
-        <v>0.08599269294613669</v>
+        <v>0.1090079580930684</v>
       </c>
       <c r="H37">
-        <v>0.1932802302259055</v>
-      </c>
-      <c r="I37">
-        <v>0.08500002219297734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.223001675383793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1272430837590332</v>
+        <v>0.1337098027779643</v>
       </c>
       <c r="C38">
-        <v>0.08434338840687051</v>
+        <v>0.08862895929686665</v>
       </c>
       <c r="D38">
-        <v>2.11998835946997E-05</v>
+        <v>1.949303886704425E-05</v>
       </c>
       <c r="E38">
-        <v>2.11998835946997E-05</v>
+        <v>1.949303886704425E-05</v>
       </c>
       <c r="F38">
-        <v>2.564456387069758E-05</v>
+        <v>2.357994000960329E-05</v>
       </c>
       <c r="G38">
-        <v>0.6409829797457223</v>
+        <v>0.683316555596614</v>
       </c>
       <c r="H38">
-        <v>0.08972302851448885</v>
-      </c>
-      <c r="I38">
-        <v>0.05763947524282491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.09428211631081154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1332353201771417</v>
+        <v>0.1424121467555419</v>
       </c>
       <c r="C39">
-        <v>0.1196873609067009</v>
+        <v>0.1279307548023909</v>
       </c>
       <c r="D39">
-        <v>2.219824602653444E-05</v>
+        <v>2.076172018931799E-05</v>
       </c>
       <c r="E39">
-        <v>2.219824602653444E-05</v>
+        <v>2.076172018931799E-05</v>
       </c>
       <c r="F39">
-        <v>4.163042550268854E-05</v>
+        <v>3.893686447789188E-05</v>
       </c>
       <c r="G39">
-        <v>0.5913020217679784</v>
+        <v>0.6291582820741567</v>
       </c>
       <c r="H39">
-        <v>0.09394833949504999</v>
-      </c>
-      <c r="I39">
-        <v>0.06174093073557313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1004183560630541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3223480970298941</v>
+        <v>0.3683101294673783</v>
       </c>
       <c r="C40">
-        <v>0.1431008147169897</v>
+        <v>0.1715387192525205</v>
       </c>
       <c r="D40">
-        <v>2.598615165725165E-06</v>
+        <v>3.136959728527079E-06</v>
       </c>
       <c r="E40">
-        <v>2.598615165725165E-06</v>
+        <v>3.136959728527079E-06</v>
       </c>
       <c r="F40">
-        <v>2.071970396199861E-06</v>
+        <v>2.400291186294255E-06</v>
       </c>
       <c r="G40">
-        <v>0.1127229403630227</v>
+        <v>0.1297418276090721</v>
       </c>
       <c r="H40">
-        <v>0.2315272612662979</v>
-      </c>
-      <c r="I40">
-        <v>0.1902936174230679</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.3304006494603858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1711628079383638</v>
+        <v>0.1845470942269973</v>
       </c>
       <c r="C41">
-        <v>0.1393124988025345</v>
+        <v>0.1502057246475227</v>
       </c>
       <c r="D41">
-        <v>2.001641259529976E-05</v>
+        <v>1.888419390851428E-05</v>
       </c>
       <c r="E41">
-        <v>2.001641259529976E-05</v>
+        <v>1.888419390851428E-05</v>
       </c>
       <c r="F41">
-        <v>1.795416585542827E-05</v>
+        <v>1.834224579429089E-05</v>
       </c>
       <c r="G41">
-        <v>0.5331838029903373</v>
+        <v>0.5722621675610969</v>
       </c>
       <c r="H41">
-        <v>0.08619043348203435</v>
-      </c>
-      <c r="I41">
-        <v>0.07009246979568404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.09292890293077198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.009343722884520771</v>
+        <v>0.0093344950311276</v>
       </c>
       <c r="C42">
-        <v>0.02301081093506998</v>
+        <v>0.02135514197810643</v>
       </c>
       <c r="D42">
-        <v>0.02667402815461486</v>
+        <v>0.02882505925905203</v>
       </c>
       <c r="E42">
-        <v>0.312280495487709</v>
+        <v>0.2774892798243705</v>
       </c>
       <c r="F42">
-        <v>0.5602364132340768</v>
+        <v>0.6129600868702021</v>
       </c>
       <c r="G42">
-        <v>0.03323966251113303</v>
+        <v>0.031334018527978</v>
       </c>
       <c r="H42">
-        <v>0.01820626158664993</v>
-      </c>
-      <c r="I42">
-        <v>0.01700860520622555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.01870191850916331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5092660969071342</v>
+        <v>0.5254056152962583</v>
       </c>
       <c r="C43">
-        <v>0.1323248284721242</v>
+        <v>0.1510094229428307</v>
       </c>
       <c r="D43">
-        <v>1.674058898235294E-06</v>
+        <v>1.906458145943328E-06</v>
       </c>
       <c r="E43">
-        <v>1.674058898235294E-06</v>
+        <v>1.906458145943328E-06</v>
       </c>
       <c r="F43">
-        <v>1.551995438062445E-06</v>
+        <v>1.749526745366256E-06</v>
       </c>
       <c r="G43">
-        <v>0.07755504434987689</v>
+        <v>0.0977634669698703</v>
       </c>
       <c r="H43">
-        <v>0.1950644505449957</v>
-      </c>
-      <c r="I43">
-        <v>0.08578467961263461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.2258159323480035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.006818680003821124</v>
+        <v>0.005881717350875219</v>
       </c>
       <c r="C44">
-        <v>0.01669604886250681</v>
+        <v>0.01536401078557288</v>
       </c>
       <c r="D44">
-        <v>0.09275782381305793</v>
+        <v>0.07704546038014359</v>
       </c>
       <c r="E44">
-        <v>0.09588861194262958</v>
+        <v>0.07840287785118298</v>
       </c>
       <c r="F44">
-        <v>0.6953144560466329</v>
+        <v>0.7727472812691859</v>
       </c>
       <c r="G44">
-        <v>0.03085461554533602</v>
+        <v>0.03077763550993374</v>
       </c>
       <c r="H44">
-        <v>0.02209605019242428</v>
-      </c>
-      <c r="I44">
-        <v>0.03957371359359126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0197810168531056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01661370058647374</v>
+        <v>0.01655454811132116</v>
       </c>
       <c r="C45">
-        <v>0.00347728215166698</v>
+        <v>0.003854169229566151</v>
       </c>
       <c r="D45">
-        <v>0.03454417982103217</v>
+        <v>0.03828850760961645</v>
       </c>
       <c r="E45">
-        <v>0.09303613738037733</v>
+        <v>0.1031205961092722</v>
       </c>
       <c r="F45">
-        <v>0.8031061261421367</v>
+        <v>0.7966811212192296</v>
       </c>
       <c r="G45">
-        <v>0.02039254541186643</v>
+        <v>0.02260293214398182</v>
       </c>
       <c r="H45">
-        <v>0.01856185069735342</v>
-      </c>
-      <c r="I45">
-        <v>0.01026817780909323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.01889812557701276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01209641462532758</v>
+        <v>0.01327229304581359</v>
       </c>
       <c r="C46">
-        <v>0.004475800244483615</v>
+        <v>0.004459946115757019</v>
       </c>
       <c r="D46">
-        <v>0.03893079048842889</v>
+        <v>0.04271527565651136</v>
       </c>
       <c r="E46">
-        <v>0.1055797373037203</v>
+        <v>0.115843258662901</v>
       </c>
       <c r="F46">
-        <v>0.7300981207973291</v>
+        <v>0.7199297361498951</v>
       </c>
       <c r="G46">
-        <v>0.08394478653764741</v>
+        <v>0.0919036356899324</v>
       </c>
       <c r="H46">
-        <v>0.01082369872914563</v>
-      </c>
-      <c r="I46">
-        <v>0.01405065127391758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.01187585467918959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.009395552793815818</v>
+        <v>0.01015499778077097</v>
       </c>
       <c r="C47">
-        <v>0.005162640501961988</v>
+        <v>0.005159781306871556</v>
       </c>
       <c r="D47">
-        <v>0.04320042501087731</v>
+        <v>0.04474461005812179</v>
       </c>
       <c r="E47">
-        <v>0.1139463490871509</v>
+        <v>0.1215914201419784</v>
       </c>
       <c r="F47">
-        <v>0.7686453802112461</v>
+        <v>0.7670899756239761</v>
       </c>
       <c r="G47">
-        <v>0.03458122592334417</v>
+        <v>0.03815399485292348</v>
       </c>
       <c r="H47">
-        <v>0.01448956750697857</v>
-      </c>
-      <c r="I47">
-        <v>0.01057885896462524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0131052202353578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.006760681205478907</v>
+        <v>0.005864275775303218</v>
       </c>
       <c r="C48">
-        <v>0.01655851636576422</v>
+        <v>0.01536216781581016</v>
       </c>
       <c r="D48">
-        <v>0.09327670036914056</v>
+        <v>0.07795507858488872</v>
       </c>
       <c r="E48">
-        <v>0.0954461496401615</v>
+        <v>0.07848640906799861</v>
       </c>
       <c r="F48">
-        <v>0.6942697569617857</v>
+        <v>0.7714083610639751</v>
       </c>
       <c r="G48">
-        <v>0.03207292521444687</v>
+        <v>0.0332199747287483</v>
       </c>
       <c r="H48">
-        <v>0.02009162369997354</v>
-      </c>
-      <c r="I48">
-        <v>0.04152364654324887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.01770373296327586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3340090873598853</v>
+        <v>0.392521922368777</v>
       </c>
       <c r="C49">
-        <v>0.1509853298344146</v>
+        <v>0.1865142576125111</v>
       </c>
       <c r="D49">
-        <v>2.829647842976775E-06</v>
+        <v>3.550798433545687E-06</v>
       </c>
       <c r="E49">
-        <v>2.829647842976775E-06</v>
+        <v>3.550798433545687E-06</v>
       </c>
       <c r="F49">
-        <v>2.146924233299368E-06</v>
+        <v>2.558080365727497E-06</v>
       </c>
       <c r="G49">
-        <v>0.1138908679917317</v>
+        <v>0.1340976703355888</v>
       </c>
       <c r="H49">
-        <v>0.2039293912718495</v>
-      </c>
-      <c r="I49">
-        <v>0.1971775173221997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.2868564900058903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.3586561956180568</v>
+        <v>0.4185038529766471</v>
       </c>
       <c r="C50">
-        <v>0.1473395401530509</v>
+        <v>0.180722239945287</v>
       </c>
       <c r="D50">
-        <v>2.761321331261156E-06</v>
+        <v>3.440531864527811E-06</v>
       </c>
       <c r="E50">
-        <v>2.761321331261156E-06</v>
+        <v>3.440531864527811E-06</v>
       </c>
       <c r="F50">
-        <v>2.095083208578512E-06</v>
+        <v>2.47864168440559E-06</v>
       </c>
       <c r="G50">
-        <v>0.1111407852401082</v>
+        <v>0.1299333984688723</v>
       </c>
       <c r="H50">
-        <v>0.1628153862060829</v>
-      </c>
-      <c r="I50">
-        <v>0.2200404750568299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.2708311489037801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005727849745723634</v>
+        <v>0.005222234890527649</v>
       </c>
       <c r="C51">
-        <v>0.0167042577674236</v>
+        <v>0.01549458119520387</v>
       </c>
       <c r="D51">
-        <v>0.09285407406032611</v>
+        <v>0.07757702097947769</v>
       </c>
       <c r="E51">
-        <v>0.0933970016624984</v>
+        <v>0.07672609622634277</v>
       </c>
       <c r="F51">
-        <v>0.6920959838591335</v>
+        <v>0.768593862797192</v>
       </c>
       <c r="G51">
-        <v>0.03871539779531064</v>
+        <v>0.0405068889006962</v>
       </c>
       <c r="H51">
-        <v>0.0183802843990257</v>
-      </c>
-      <c r="I51">
-        <v>0.04212515071055843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.01587931501055989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.246403962477161</v>
+        <v>0.3213521534592709</v>
       </c>
       <c r="C52">
-        <v>0.2240425461538441</v>
+        <v>0.2142728106527491</v>
       </c>
       <c r="D52">
-        <v>2.838491657759703E-06</v>
+        <v>2.732762471592675E-06</v>
       </c>
       <c r="E52">
-        <v>2.838491657759703E-06</v>
+        <v>2.732762471592675E-06</v>
       </c>
       <c r="F52">
-        <v>3.555019283229777E-06</v>
+        <v>3.181674868404425E-06</v>
       </c>
       <c r="G52">
-        <v>0.1633663802187736</v>
+        <v>0.1520752829918708</v>
       </c>
       <c r="H52">
-        <v>0.244219476148551</v>
-      </c>
-      <c r="I52">
-        <v>0.1219584029990716</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.3122911056962978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1761406743532148</v>
+        <v>0.1914651435149583</v>
       </c>
       <c r="C53">
-        <v>0.1433640741261167</v>
+        <v>0.1558364315995774</v>
       </c>
       <c r="D53">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="E53">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="F53">
-        <v>1.847632040696253E-05</v>
+        <v>1.902983484026481E-05</v>
       </c>
       <c r="G53">
-        <v>0.5181297719345641</v>
+        <v>0.5546225144021351</v>
       </c>
       <c r="H53">
-        <v>0.0901662250705929</v>
-      </c>
-      <c r="I53">
-        <v>0.07213094389839647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.0980094811109733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1761406743532148</v>
+        <v>0.1914651435149583</v>
       </c>
       <c r="C54">
-        <v>0.1433640741261167</v>
+        <v>0.1558364315995774</v>
       </c>
       <c r="D54">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="E54">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="F54">
-        <v>1.847632040696253E-05</v>
+        <v>1.902983484026481E-05</v>
       </c>
       <c r="G54">
-        <v>0.5181297719345641</v>
+        <v>0.5546225144021351</v>
       </c>
       <c r="H54">
-        <v>0.0901662250705929</v>
-      </c>
-      <c r="I54">
-        <v>0.07213094389839647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.0980094811109733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1761406743532148</v>
+        <v>0.1914651435149583</v>
       </c>
       <c r="C55">
-        <v>0.1433640741261167</v>
+        <v>0.1558364315995774</v>
       </c>
       <c r="D55">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="E55">
-        <v>2.491714835403104E-05</v>
+        <v>2.369976875786115E-05</v>
       </c>
       <c r="F55">
-        <v>1.847632040696253E-05</v>
+        <v>1.902983484026481E-05</v>
       </c>
       <c r="G55">
-        <v>0.5181297719345641</v>
+        <v>0.5546225144021351</v>
       </c>
       <c r="H55">
-        <v>0.0901662250705929</v>
-      </c>
-      <c r="I55">
-        <v>0.07213094389839647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0980094811109733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1594743470466621</v>
+        <v>0.1818946588395189</v>
       </c>
       <c r="C56">
-        <v>0.1947698305839347</v>
+        <v>0.214553958344024</v>
       </c>
       <c r="D56">
-        <v>3.512153520962301E-06</v>
+        <v>3.739161723265283E-06</v>
       </c>
       <c r="E56">
-        <v>3.512153520962301E-06</v>
+        <v>3.739161723265283E-06</v>
       </c>
       <c r="F56">
-        <v>3.734219395647643E-06</v>
+        <v>4.002232803278231E-06</v>
       </c>
       <c r="G56">
-        <v>0.4762047438381616</v>
+        <v>0.4998566150779747</v>
       </c>
       <c r="H56">
-        <v>0.09388464801539573</v>
-      </c>
-      <c r="I56">
-        <v>0.07565567198940837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1036832871822326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1900628467679085</v>
+        <v>0.2112692659368798</v>
       </c>
       <c r="C57">
-        <v>0.1546955815441834</v>
+        <v>0.1719553121045938</v>
       </c>
       <c r="D57">
-        <v>4.168369996384183E-05</v>
+        <v>4.054387040944823E-05</v>
       </c>
       <c r="E57">
-        <v>4.168369996384183E-05</v>
+        <v>4.054387040944823E-05</v>
       </c>
       <c r="F57">
-        <v>2.748676214020407E-05</v>
+        <v>2.988836747216525E-05</v>
       </c>
       <c r="G57">
-        <v>0.4800055678698238</v>
+        <v>0.508517392297628</v>
       </c>
       <c r="H57">
-        <v>0.09729297041788051</v>
-      </c>
-      <c r="I57">
-        <v>0.07783217923813587</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1081470535526072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.2321215058218117</v>
+        <v>0.3045438232309214</v>
       </c>
       <c r="C58">
-        <v>0.2188554142132209</v>
+        <v>0.2120626542099096</v>
       </c>
       <c r="D58">
-        <v>3.174482609866458E-06</v>
+        <v>3.067610038424187E-06</v>
       </c>
       <c r="E58">
-        <v>3.174482609866458E-06</v>
+        <v>3.067610038424187E-06</v>
       </c>
       <c r="F58">
-        <v>3.712149739683369E-06</v>
+        <v>3.386998048249438E-06</v>
       </c>
       <c r="G58">
-        <v>0.1923318761930448</v>
+        <v>0.1863891054984341</v>
       </c>
       <c r="H58">
-        <v>0.2359506084177573</v>
-      </c>
-      <c r="I58">
-        <v>0.1207305342392062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.29699489484261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.2494433394489818</v>
+        <v>0.2793814133606491</v>
       </c>
       <c r="C59">
-        <v>0.1845114325259856</v>
+        <v>0.2066557638297931</v>
       </c>
       <c r="D59">
-        <v>1.63923971154951E-05</v>
+        <v>1.739623374662106E-05</v>
       </c>
       <c r="E59">
-        <v>1.63923971154951E-05</v>
+        <v>1.739623374662106E-05</v>
       </c>
       <c r="F59">
-        <v>2.260023685674257E-05</v>
+        <v>2.476143489085846E-05</v>
       </c>
       <c r="G59">
-        <v>0.379132694723936</v>
+        <v>0.4212883260343109</v>
       </c>
       <c r="H59">
-        <v>0.08269195040976558</v>
-      </c>
-      <c r="I59">
-        <v>0.1041651978602434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.09261494287286286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.2494433394489818</v>
+        <v>0.2793814133606491</v>
       </c>
       <c r="C60">
-        <v>0.1845114325259856</v>
+        <v>0.2066557638297931</v>
       </c>
       <c r="D60">
-        <v>1.63923971154951E-05</v>
+        <v>1.739623374662106E-05</v>
       </c>
       <c r="E60">
-        <v>1.63923971154951E-05</v>
+        <v>1.739623374662106E-05</v>
       </c>
       <c r="F60">
-        <v>2.260023685674257E-05</v>
+        <v>2.476143489085846E-05</v>
       </c>
       <c r="G60">
-        <v>0.379132694723936</v>
+        <v>0.4212883260343109</v>
       </c>
       <c r="H60">
-        <v>0.08269195040976558</v>
-      </c>
-      <c r="I60">
-        <v>0.1041651978602434</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.09261494287286286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.2541289929540321</v>
+        <v>0.2864752021457227</v>
       </c>
       <c r="C61">
-        <v>0.2095648871449667</v>
+        <v>0.2362384218581637</v>
       </c>
       <c r="D61">
-        <v>1.638961071000228E-05</v>
+        <v>1.75060657596559E-05</v>
       </c>
       <c r="E61">
-        <v>1.638961071000228E-05</v>
+        <v>1.75060657596559E-05</v>
       </c>
       <c r="F61">
-        <v>2.259639523286822E-05</v>
+        <v>2.491776747866485E-05</v>
       </c>
       <c r="G61">
-        <v>0.3494253582868516</v>
+        <v>0.3840267740374074</v>
       </c>
       <c r="H61">
-        <v>0.08267789430172902</v>
-      </c>
-      <c r="I61">
-        <v>0.1041474916957677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.09319967205970821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0130169969504554</v>
+        <v>0.01652004641454292</v>
       </c>
       <c r="C62">
-        <v>0.007959419863004264</v>
+        <v>0.006646771994508551</v>
       </c>
       <c r="D62">
-        <v>0.01881205456767093</v>
+        <v>0.02394066327374431</v>
       </c>
       <c r="E62">
-        <v>0.1161549974322816</v>
+        <v>0.088915915465023</v>
       </c>
       <c r="F62">
-        <v>0.7979427805785397</v>
+        <v>0.8239035975858973</v>
       </c>
       <c r="G62">
-        <v>0.01467080606923506</v>
+        <v>0.01272314076722595</v>
       </c>
       <c r="H62">
-        <v>0.02537663133885411</v>
-      </c>
-      <c r="I62">
-        <v>0.006066313199959045</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.02734986449905811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.002354194607257549</v>
+        <v>0.002498398253935048</v>
       </c>
       <c r="C63">
-        <v>0.006135450090698038</v>
+        <v>0.006160506915163711</v>
       </c>
       <c r="D63">
-        <v>0.01072830572466567</v>
+        <v>0.01144652253817365</v>
       </c>
       <c r="E63">
-        <v>0.1628686051287926</v>
+        <v>0.1476925774947607</v>
       </c>
       <c r="F63">
-        <v>0.7972908062479738</v>
+        <v>0.8157488085960192</v>
       </c>
       <c r="G63">
-        <v>0.007993097833376425</v>
+        <v>0.007829644187950919</v>
       </c>
       <c r="H63">
-        <v>0.008640388989163156</v>
-      </c>
-      <c r="I63">
-        <v>0.003989151378072779</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.008623542013996847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.006236767128151649</v>
+        <v>0.006596961538362011</v>
       </c>
       <c r="C64">
-        <v>0.006037194890637747</v>
+        <v>0.00638586134062073</v>
       </c>
       <c r="D64">
-        <v>0.02349449636078061</v>
+        <v>0.02485155495754796</v>
       </c>
       <c r="E64">
-        <v>0.02349449636078061</v>
+        <v>0.02485155495754796</v>
       </c>
       <c r="F64">
-        <v>0.8965027374716473</v>
+        <v>0.902875283925025</v>
       </c>
       <c r="G64">
-        <v>0.02887031176777387</v>
+        <v>0.02711105194290623</v>
       </c>
       <c r="H64">
-        <v>0.006927630356039678</v>
-      </c>
-      <c r="I64">
-        <v>0.008436365664188525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.007327731337990003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.005804465567127422</v>
+        <v>0.005817257833490058</v>
       </c>
       <c r="C65">
-        <v>0.00507897300437695</v>
+        <v>0.004723889832331528</v>
       </c>
       <c r="D65">
-        <v>0.03289233122002126</v>
+        <v>0.03530619658798546</v>
       </c>
       <c r="E65">
-        <v>0.2254114117369932</v>
+        <v>0.2038485129689822</v>
       </c>
       <c r="F65">
-        <v>0.6673267988968771</v>
+        <v>0.7099110936074524</v>
       </c>
       <c r="G65">
-        <v>0.01743670576722504</v>
+        <v>0.01787850521767131</v>
       </c>
       <c r="H65">
-        <v>0.02261134524524387</v>
-      </c>
-      <c r="I65">
-        <v>0.02343796856213514</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.02251454395208693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.2645693817635505</v>
+        <v>0.3026900099560578</v>
       </c>
       <c r="C66">
-        <v>0.218174447499271</v>
+        <v>0.2496097733020436</v>
       </c>
       <c r="D66">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="E66">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="F66">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="G66">
-        <v>0.3226848578016687</v>
+        <v>0.3491463575246129</v>
       </c>
       <c r="H66">
-        <v>0.08607455263822375</v>
-      </c>
-      <c r="I66">
-        <v>0.1084261861264995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.09847487479668265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4956620520508819</v>
+        <v>0.509151891675965</v>
       </c>
       <c r="C67">
-        <v>0.1276622417468522</v>
+        <v>0.1488111757275802</v>
       </c>
       <c r="D67">
-        <v>3.680579614578544E-06</v>
+        <v>4.49706825856053E-06</v>
       </c>
       <c r="E67">
-        <v>3.680579614578544E-06</v>
+        <v>4.49706825856053E-06</v>
       </c>
       <c r="F67">
-        <v>1.869470646160814E-06</v>
+        <v>2.152583460700545E-06</v>
       </c>
       <c r="G67">
-        <v>0.05494538043521965</v>
+        <v>0.06656135137305055</v>
       </c>
       <c r="H67">
-        <v>0.2329666831452157</v>
-      </c>
-      <c r="I67">
-        <v>0.08875441199195527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.2754644345034264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.2645693817635505</v>
+        <v>0.3026900099560578</v>
       </c>
       <c r="C68">
-        <v>0.218174447499271</v>
+        <v>0.2496097733020436</v>
       </c>
       <c r="D68">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="E68">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="F68">
-        <v>2.352472359549377E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="G68">
-        <v>0.3226848578016687</v>
+        <v>0.3491463575246129</v>
       </c>
       <c r="H68">
-        <v>0.08607455263822375</v>
-      </c>
-      <c r="I68">
-        <v>0.1084261861264995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.09847487479668265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.042087506957162</v>
+        <v>0.04511367184995044</v>
       </c>
       <c r="C69">
-        <v>0.009098577533314955</v>
+        <v>0.009236380275978975</v>
       </c>
       <c r="D69">
-        <v>0.04047291837406253</v>
+        <v>0.04075984299451357</v>
       </c>
       <c r="E69">
-        <v>0.2273637265719624</v>
+        <v>0.239812639672032</v>
       </c>
       <c r="F69">
-        <v>0.5160483133317123</v>
+        <v>0.5305327772717723</v>
       </c>
       <c r="G69">
-        <v>0.08921354996546645</v>
+        <v>0.09581964506031461</v>
       </c>
       <c r="H69">
-        <v>0.03939145401177068</v>
-      </c>
-      <c r="I69">
-        <v>0.03632395325454871</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.03872504287543814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.006244988136941064</v>
+        <v>0.006606741929006319</v>
       </c>
       <c r="C70">
-        <v>0.006176439477449861</v>
+        <v>0.00653422176435449</v>
       </c>
       <c r="D70">
-        <v>0.02352546568464923</v>
+        <v>0.0248883988764021</v>
       </c>
       <c r="E70">
-        <v>0.02352546568464923</v>
+        <v>0.0248883988764021</v>
       </c>
       <c r="F70">
-        <v>0.8962350256747881</v>
+        <v>0.9025923977138118</v>
       </c>
       <c r="G70">
-        <v>0.02890836723496051</v>
+        <v>0.02715124570138698</v>
       </c>
       <c r="H70">
-        <v>0.006936762027765843</v>
-      </c>
-      <c r="I70">
-        <v>0.008447486078796111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.007338595138636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.3700014943624982</v>
+        <v>0.3696309912046108</v>
       </c>
       <c r="C71">
-        <v>0.1846229370434618</v>
+        <v>0.2055332312642898</v>
       </c>
       <c r="D71">
-        <v>4.786757252975962E-06</v>
+        <v>5.585699403081922E-06</v>
       </c>
       <c r="E71">
-        <v>4.786757252975962E-06</v>
+        <v>5.585699403081922E-06</v>
       </c>
       <c r="F71">
-        <v>2.431329603438189E-06</v>
+        <v>2.673671703477261E-06</v>
       </c>
       <c r="G71">
-        <v>0.07145890752479429</v>
+        <v>0.08267424002849839</v>
       </c>
       <c r="H71">
-        <v>0.2476923320723309</v>
-      </c>
-      <c r="I71">
-        <v>0.1262123241528053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.3421476924320911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.007215567690473276</v>
+        <v>0.006714496542586419</v>
       </c>
       <c r="C72">
-        <v>0.006359128623512909</v>
+        <v>0.007195512901948059</v>
       </c>
       <c r="D72">
-        <v>0.009235546084818283</v>
+        <v>0.01073948082123357</v>
       </c>
       <c r="E72">
-        <v>0.02770631501599855</v>
+        <v>0.03221812028410877</v>
       </c>
       <c r="F72">
-        <v>0.9212206147610497</v>
+        <v>0.9243737954930914</v>
       </c>
       <c r="G72">
-        <v>0.008999538171836284</v>
+        <v>0.009497582235990072</v>
       </c>
       <c r="H72">
-        <v>0.008825327034095474</v>
-      </c>
-      <c r="I72">
-        <v>0.01043796261821557</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.009261011721041533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.2639831545848373</v>
+        <v>0.3026900099560578</v>
       </c>
       <c r="C73">
-        <v>0.2176910212238182</v>
+        <v>0.2496097733020436</v>
       </c>
       <c r="D73">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="E73">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="F73">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="G73">
-        <v>0.3135464676776803</v>
+        <v>0.3491463575246129</v>
       </c>
       <c r="H73">
-        <v>0.08588383048505636</v>
-      </c>
-      <c r="I73">
-        <v>0.1188251082345599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.09847487479668265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.005267039925258255</v>
+        <v>0.005967837730555784</v>
       </c>
       <c r="C74">
-        <v>0.003859213881588587</v>
+        <v>0.00378060007737285</v>
       </c>
       <c r="D74">
-        <v>0.02856812197686585</v>
+        <v>0.03325035065732981</v>
       </c>
       <c r="E74">
-        <v>0.1005463203681062</v>
+        <v>0.09664868878268927</v>
       </c>
       <c r="F74">
-        <v>0.8169023042745346</v>
+        <v>0.8211116940746415</v>
       </c>
       <c r="G74">
-        <v>0.0158561066200402</v>
+        <v>0.01755973248696826</v>
       </c>
       <c r="H74">
-        <v>0.02015773440501839</v>
-      </c>
-      <c r="I74">
-        <v>0.008843158548587929</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.02168109619044241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.2639831545848373</v>
+        <v>0.3026900099560578</v>
       </c>
       <c r="C75">
-        <v>0.2176910212238182</v>
+        <v>0.2496097733020436</v>
       </c>
       <c r="D75">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="E75">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="F75">
-        <v>2.347259801598993E-05</v>
+        <v>2.63281402009909E-05</v>
       </c>
       <c r="G75">
-        <v>0.3135464676776803</v>
+        <v>0.3491463575246129</v>
       </c>
       <c r="H75">
-        <v>0.08588383048505636</v>
-      </c>
-      <c r="I75">
-        <v>0.1188251082345599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09847487479668265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.007470188888203825</v>
+        <v>0.007009463698303095</v>
       </c>
       <c r="C76">
-        <v>0.006357674602556755</v>
+        <v>0.00719358726324919</v>
       </c>
       <c r="D76">
-        <v>0.009233434368206795</v>
+        <v>0.01073660675788924</v>
       </c>
       <c r="E76">
-        <v>0.02769997994007288</v>
+        <v>0.03220949818029639</v>
       </c>
       <c r="F76">
-        <v>0.921009976769689</v>
+        <v>0.9241264177205345</v>
       </c>
       <c r="G76">
-        <v>0.008969860348909101</v>
+        <v>0.00946589305915631</v>
       </c>
       <c r="H76">
-        <v>0.008823309114469656</v>
-      </c>
-      <c r="I76">
-        <v>0.01043557596789208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.009258533320571166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.00575685336631386</v>
+        <v>0.005426940786929985</v>
       </c>
       <c r="C77">
-        <v>0.005372708965708075</v>
+        <v>0.005586955666431366</v>
       </c>
       <c r="D77">
-        <v>0.02743697678068052</v>
+        <v>0.0308881665646456</v>
       </c>
       <c r="E77">
-        <v>0.08235462115203519</v>
+        <v>0.06179513651802525</v>
       </c>
       <c r="F77">
-        <v>0.8487924211221879</v>
+        <v>0.8759096456795504</v>
       </c>
       <c r="G77">
-        <v>0.01257023683261642</v>
+        <v>0.01182767357518424</v>
       </c>
       <c r="H77">
-        <v>0.007830455138815435</v>
-      </c>
-      <c r="I77">
-        <v>0.009885726641642632</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.008565481209233177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.3700014943624982</v>
+        <v>0.3696309912046108</v>
       </c>
       <c r="C78">
-        <v>0.1846229370434618</v>
+        <v>0.2055332312642898</v>
       </c>
       <c r="D78">
-        <v>4.786757252975962E-06</v>
+        <v>5.585699403081922E-06</v>
       </c>
       <c r="E78">
-        <v>4.786757252975962E-06</v>
+        <v>5.585699403081922E-06</v>
       </c>
       <c r="F78">
-        <v>2.431329603438189E-06</v>
+        <v>2.673671703477261E-06</v>
       </c>
       <c r="G78">
-        <v>0.07145890752479429</v>
+        <v>0.08267424002849839</v>
       </c>
       <c r="H78">
-        <v>0.2476923320723309</v>
-      </c>
-      <c r="I78">
-        <v>0.1262123241528053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3421476924320911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2687980196528797</v>
+        <v>0.3087219740267708</v>
       </c>
       <c r="C79">
-        <v>0.2216615506894785</v>
+        <v>0.254583961860415</v>
       </c>
       <c r="D79">
-        <v>2.315540016329901E-05</v>
+        <v>2.601541281311927E-05</v>
       </c>
       <c r="E79">
-        <v>2.315540016329901E-05</v>
+        <v>2.601541281311927E-05</v>
       </c>
       <c r="F79">
-        <v>2.315540016329901E-05</v>
+        <v>2.601541281311927E-05</v>
       </c>
       <c r="G79">
-        <v>0.3010282792274963</v>
+        <v>0.3361787495823541</v>
       </c>
       <c r="H79">
-        <v>0.08745029049634957</v>
-      </c>
-      <c r="I79">
-        <v>0.120992393733306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1004372682920206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.01114999867368869</v>
+        <v>0.01425327673893993</v>
       </c>
       <c r="C80">
-        <v>0.007959878320027045</v>
+        <v>0.005913702298402928</v>
       </c>
       <c r="D80">
-        <v>0.02458282811784111</v>
+        <v>0.0314234120581367</v>
       </c>
       <c r="E80">
-        <v>0.09581215504694424</v>
+        <v>0.06122489058172112</v>
       </c>
       <c r="F80">
-        <v>0.8177204974376229</v>
+        <v>0.8507189842563662</v>
       </c>
       <c r="G80">
-        <v>0.01332281942427687</v>
+        <v>0.01098095208339859</v>
       </c>
       <c r="H80">
-        <v>0.0238214349417126</v>
-      </c>
-      <c r="I80">
-        <v>0.005630388037886536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.02548478198303452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.2965843555780434</v>
+        <v>0.3433223288575503</v>
       </c>
       <c r="C81">
-        <v>0.2350809316530056</v>
+        <v>0.2721261947084695</v>
       </c>
       <c r="D81">
-        <v>2.6720682149239E-05</v>
+        <v>3.097261555427109E-05</v>
       </c>
       <c r="E81">
-        <v>2.6720682149239E-05</v>
+        <v>3.097261555427109E-05</v>
       </c>
       <c r="F81">
-        <v>2.234881281413237E-05</v>
+        <v>2.530723794853628E-05</v>
       </c>
       <c r="G81">
-        <v>0.2146521402456658</v>
+        <v>0.2260741028451465</v>
       </c>
       <c r="H81">
-        <v>0.1368289965851942</v>
-      </c>
-      <c r="I81">
-        <v>0.1167777857609784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1583901211197767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.006324231489988315</v>
+        <v>0.006701566321811132</v>
       </c>
       <c r="C82">
-        <v>0.006254813008888829</v>
+        <v>0.006628005299100503</v>
       </c>
       <c r="D82">
-        <v>0.02361211847633423</v>
+        <v>0.0250211068430156</v>
       </c>
       <c r="E82">
-        <v>0.02361211847633423</v>
+        <v>0.0250211068430156</v>
       </c>
       <c r="F82">
-        <v>0.8920000398898364</v>
+        <v>0.8980950061802349</v>
       </c>
       <c r="G82">
-        <v>0.03117647513865761</v>
+        <v>0.02956256575788999</v>
       </c>
       <c r="H82">
-        <v>0.008465526345356798</v>
-      </c>
-      <c r="I82">
-        <v>0.008554677174603648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.008970642754932338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0122275263119988</v>
+        <v>0.01244882437850263</v>
       </c>
       <c r="C83">
-        <v>0.01144668055372188</v>
+        <v>0.01264044382182917</v>
       </c>
       <c r="D83">
-        <v>0.0433858609017848</v>
+        <v>0.03883046481287114</v>
       </c>
       <c r="E83">
-        <v>0.0908427838801088</v>
+        <v>0.08237172742801484</v>
       </c>
       <c r="F83">
-        <v>0.7830966598565821</v>
+        <v>0.8147167756076967</v>
       </c>
       <c r="G83">
-        <v>0.02159904961715513</v>
+        <v>0.02280807393824026</v>
       </c>
       <c r="H83">
-        <v>0.01695450621153626</v>
-      </c>
-      <c r="I83">
-        <v>0.02044693266711231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.01618369001284528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006333713433119165</v>
+        <v>0.006710850002268056</v>
       </c>
       <c r="C84">
-        <v>0.006264190872640064</v>
+        <v>0.006637187075465738</v>
       </c>
       <c r="D84">
-        <v>0.02364752021090798</v>
+        <v>0.02505576858468233</v>
       </c>
       <c r="E84">
-        <v>0.02364752021090798</v>
+        <v>0.02505576858468233</v>
       </c>
       <c r="F84">
-        <v>0.8916811093019289</v>
+        <v>0.8978160982870077</v>
       </c>
       <c r="G84">
-        <v>0.03135277264388206</v>
+        <v>0.02974125767870793</v>
       </c>
       <c r="H84">
-        <v>0.008478218739603666</v>
-      </c>
-      <c r="I84">
-        <v>0.00859495458701026</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.008983069787185823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.2505489462996914</v>
+        <v>0.2974010147265414</v>
       </c>
       <c r="C85">
-        <v>0.240993012828413</v>
+        <v>0.2860580681475591</v>
       </c>
       <c r="D85">
-        <v>7.871362400584813E-06</v>
+        <v>1.008118838737322E-05</v>
       </c>
       <c r="E85">
-        <v>7.871362400584813E-06</v>
+        <v>1.008118838737322E-05</v>
       </c>
       <c r="F85">
-        <v>1.657369454560746E-05</v>
+        <v>1.924443970694058E-05</v>
       </c>
       <c r="G85">
-        <v>0.1501342073784939</v>
+        <v>0.1596044006906226</v>
       </c>
       <c r="H85">
-        <v>0.2164261881749397</v>
-      </c>
-      <c r="I85">
-        <v>0.1418653288991153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.2568971096187954</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.2482053283060375</v>
+        <v>0.2974010147265414</v>
       </c>
       <c r="C86">
-        <v>0.2387387803937894</v>
+        <v>0.2860580681475591</v>
       </c>
       <c r="D86">
-        <v>7.797734206058242E-06</v>
+        <v>1.008118838737322E-05</v>
       </c>
       <c r="E86">
-        <v>7.797734206058242E-06</v>
+        <v>1.008118838737322E-05</v>
       </c>
       <c r="F86">
-        <v>1.641866532144961E-05</v>
+        <v>1.924443970694058E-05</v>
       </c>
       <c r="G86">
-        <v>0.1430924582420183</v>
+        <v>0.1596044006906226</v>
       </c>
       <c r="H86">
-        <v>0.2144017521659453</v>
-      </c>
-      <c r="I86">
-        <v>0.1555296667584758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2568971096187954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.2578723531803695</v>
+        <v>0.3093604791815218</v>
       </c>
       <c r="C87">
-        <v>0.2381969055764633</v>
+        <v>0.285756378517837</v>
       </c>
       <c r="D87">
-        <v>7.780035381462188E-06</v>
+        <v>1.007055631532071E-05</v>
       </c>
       <c r="E87">
-        <v>7.780035381462188E-06</v>
+        <v>1.007055631532071E-05</v>
       </c>
       <c r="F87">
-        <v>1.958592456876861E-05</v>
+        <v>2.352773590550532E-05</v>
       </c>
       <c r="G87">
-        <v>0.13480382424204</v>
+        <v>0.1482132990122383</v>
       </c>
       <c r="H87">
-        <v>0.2139151160605849</v>
-      </c>
-      <c r="I87">
-        <v>0.1551766549452106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.2566261744398667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.2734120831066924</v>
+        <v>0.3296103454245017</v>
       </c>
       <c r="C88">
-        <v>0.2485236424067642</v>
+        <v>0.2996060410119455</v>
       </c>
       <c r="D88">
-        <v>6.710445068971624E-06</v>
+        <v>8.728607156077637E-06</v>
       </c>
       <c r="E88">
-        <v>6.710445068971624E-06</v>
+        <v>8.728607156077637E-06</v>
       </c>
       <c r="F88">
-        <v>1.96395383645713E-05</v>
+        <v>2.427751507003591E-05</v>
       </c>
       <c r="G88">
-        <v>0.09293791869918003</v>
+        <v>0.1016778861325343</v>
       </c>
       <c r="H88">
-        <v>0.2231891454701392</v>
-      </c>
-      <c r="I88">
-        <v>0.1619041498887215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.2690639927016365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.128997918988085</v>
+        <v>0.1413000323301268</v>
       </c>
       <c r="C89">
-        <v>0.1608458220713348</v>
+        <v>0.1681180196462776</v>
       </c>
       <c r="D89">
-        <v>5.21419044464556E-06</v>
+        <v>4.855389120681402E-06</v>
       </c>
       <c r="E89">
-        <v>5.21419044464556E-06</v>
+        <v>4.855389120681402E-06</v>
       </c>
       <c r="F89">
-        <v>4.138572311374364E-06</v>
+        <v>4.275931037408957E-06</v>
       </c>
       <c r="G89">
-        <v>0.6094517042121675</v>
+        <v>0.6346847447237054</v>
       </c>
       <c r="H89">
-        <v>0.05292599109851012</v>
-      </c>
-      <c r="I89">
-        <v>0.04776399667670193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.05588321659061146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.02363127609012095</v>
+        <v>0.02621644411911256</v>
       </c>
       <c r="C90">
-        <v>0.009372633996801806</v>
+        <v>0.01012624406036459</v>
       </c>
       <c r="D90">
-        <v>0.05092126422650622</v>
+        <v>0.06079656625770301</v>
       </c>
       <c r="E90">
-        <v>0.1524216756599145</v>
+        <v>0.1516432311655107</v>
       </c>
       <c r="F90">
-        <v>0.6730480724955047</v>
+        <v>0.6685853843835252</v>
       </c>
       <c r="G90">
-        <v>0.02702581913719957</v>
+        <v>0.02553685366243664</v>
       </c>
       <c r="H90">
-        <v>0.04874894470555434</v>
-      </c>
-      <c r="I90">
-        <v>0.01483031368839793</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.05709527635134731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.01258712789294494</v>
+        <v>0.01238251931629708</v>
       </c>
       <c r="C91">
-        <v>0.004125518568401638</v>
+        <v>0.004212149329235466</v>
       </c>
       <c r="D91">
-        <v>0.03756788160971489</v>
+        <v>0.03873667558484028</v>
       </c>
       <c r="E91">
-        <v>0.0969575489146644</v>
+        <v>0.102794243067393</v>
       </c>
       <c r="F91">
-        <v>0.7605610845681231</v>
+        <v>0.7603219623741807</v>
       </c>
       <c r="G91">
-        <v>0.06023357109796754</v>
+        <v>0.06584136704176811</v>
       </c>
       <c r="H91">
-        <v>0.01699080631087669</v>
-      </c>
-      <c r="I91">
-        <v>0.0109764610373067</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.01571108328628544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.02170055149341652</v>
+        <v>0.0236177208184323</v>
       </c>
       <c r="C92">
-        <v>0.005612251329649847</v>
+        <v>0.00578683212640851</v>
       </c>
       <c r="D92">
-        <v>0.04534597370977718</v>
+        <v>0.05306745261762237</v>
       </c>
       <c r="E92">
-        <v>0.1602706136423092</v>
+        <v>0.1608042707223487</v>
       </c>
       <c r="F92">
-        <v>0.7096322944412055</v>
+        <v>0.7118881565154215</v>
       </c>
       <c r="G92">
-        <v>0.02440735238479321</v>
+        <v>0.02281926039377966</v>
       </c>
       <c r="H92">
-        <v>0.01956694526230206</v>
-      </c>
-      <c r="I92">
-        <v>0.01346401773654641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.02201630680598694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01213977330113326</v>
+        <v>0.01335363332586454</v>
       </c>
       <c r="C93">
-        <v>0.00415026760320791</v>
+        <v>0.004524936650541055</v>
       </c>
       <c r="D93">
-        <v>0.02404627817193376</v>
+        <v>0.02713158202837767</v>
       </c>
       <c r="E93">
-        <v>0.09115055019266617</v>
+        <v>0.1019759964455812</v>
       </c>
       <c r="F93">
-        <v>0.8254804006530396</v>
+        <v>0.8192841445246328</v>
       </c>
       <c r="G93">
-        <v>0.01697452368914008</v>
+        <v>0.01867182439440961</v>
       </c>
       <c r="H93">
-        <v>0.0152954469068586</v>
-      </c>
-      <c r="I93">
-        <v>0.01076275948202053</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.01505788263059312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003185331811914203</v>
+        <v>0.002791481565498463</v>
       </c>
       <c r="C94">
-        <v>0.01810815519843985</v>
+        <v>0.01891086499905029</v>
       </c>
       <c r="D94">
-        <v>0.0108827911868211</v>
+        <v>0.01147951210777669</v>
       </c>
       <c r="E94">
-        <v>0.1592575569415601</v>
+        <v>0.1521712757607075</v>
       </c>
       <c r="F94">
-        <v>0.786255203069644</v>
+        <v>0.8001663390161403</v>
       </c>
       <c r="G94">
-        <v>0.007018101365685645</v>
+        <v>0.00661575651214869</v>
       </c>
       <c r="H94">
-        <v>0.008667939374157361</v>
-      </c>
-      <c r="I94">
-        <v>0.006624921051777675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.007864770038678049</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.007270816129972045</v>
+        <v>0.007713102787996952</v>
       </c>
       <c r="C95">
-        <v>0.008694688395829582</v>
+        <v>0.009223602248078465</v>
       </c>
       <c r="D95">
-        <v>0.02280238191442848</v>
+        <v>0.02440635215956174</v>
       </c>
       <c r="E95">
-        <v>0.02280238191442848</v>
+        <v>0.02440635215956174</v>
       </c>
       <c r="F95">
-        <v>0.8820836451586913</v>
+        <v>0.8894302160123919</v>
       </c>
       <c r="G95">
-        <v>0.03289597413017638</v>
+        <v>0.03139619121130483</v>
       </c>
       <c r="H95">
-        <v>0.0126543660990126</v>
-      </c>
-      <c r="I95">
-        <v>0.01079574625746123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.01342418342110426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.005087914613598312</v>
+        <v>0.00638838425499415</v>
       </c>
       <c r="C96">
-        <v>0.008488794259119451</v>
+        <v>0.00603528588427963</v>
       </c>
       <c r="D96">
-        <v>0.01852944380770349</v>
+        <v>0.02326448431632214</v>
       </c>
       <c r="E96">
-        <v>0.1630351711393417</v>
+        <v>0.1466692117484482</v>
       </c>
       <c r="F96">
-        <v>0.7684417094757577</v>
+        <v>0.7876390575949763</v>
       </c>
       <c r="G96">
-        <v>0.01785555230198488</v>
+        <v>0.01674121319837269</v>
       </c>
       <c r="H96">
-        <v>0.01350685972014528</v>
-      </c>
-      <c r="I96">
-        <v>0.005054554682349156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.01326236300260691</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.009030035656073127</v>
+        <v>0.009773476030461414</v>
       </c>
       <c r="C97">
-        <v>0.01092085470706935</v>
+        <v>0.01181998216734295</v>
       </c>
       <c r="D97">
-        <v>0.02759651933736428</v>
+        <v>0.03013633992342556</v>
       </c>
       <c r="E97">
-        <v>0.05519255574409145</v>
+        <v>0.06027222780853284</v>
       </c>
       <c r="F97">
-        <v>0.8287299177677367</v>
+        <v>0.8322884684417639</v>
       </c>
       <c r="G97">
-        <v>0.04014968348390226</v>
+        <v>0.03913366700598327</v>
       </c>
       <c r="H97">
-        <v>0.01531491140063891</v>
-      </c>
-      <c r="I97">
-        <v>0.01306552190312391</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.01657583862249003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.009040921887249732</v>
+        <v>0.00978629608806402</v>
       </c>
       <c r="C98">
-        <v>0.01093402043016451</v>
+        <v>0.01183548666664031</v>
       </c>
       <c r="D98">
-        <v>0.02762978854034624</v>
+        <v>0.03017587034356941</v>
       </c>
       <c r="E98">
-        <v>0.05525909356785449</v>
+        <v>0.06035128805587314</v>
       </c>
       <c r="F98">
-        <v>0.8282899293925967</v>
+        <v>0.8318157117709302</v>
       </c>
       <c r="G98">
-        <v>0.04019808625358339</v>
+        <v>0.03918499939413813</v>
       </c>
       <c r="H98">
-        <v>0.01556688678142065</v>
-      </c>
-      <c r="I98">
-        <v>0.01308127314678425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.01685034768078488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.3208521146258791</v>
+        <v>0.3811434695270615</v>
       </c>
       <c r="C99">
-        <v>0.2364913925470915</v>
+        <v>0.2809300150473552</v>
       </c>
       <c r="D99">
-        <v>5.282556768218E-06</v>
+        <v>6.540917703866734E-06</v>
       </c>
       <c r="E99">
-        <v>5.282556768218E-06</v>
+        <v>6.540917703866734E-06</v>
       </c>
       <c r="F99">
-        <v>1.820455154163212E-05</v>
+        <v>2.21744477064121E-05</v>
       </c>
       <c r="G99">
-        <v>0.08462766376180127</v>
+        <v>0.09089496710352311</v>
       </c>
       <c r="H99">
-        <v>0.2079256336809436</v>
-      </c>
-      <c r="I99">
-        <v>0.1500744257192065</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2469962920389459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.01288890720476287</v>
+        <v>0.01395410912782411</v>
       </c>
       <c r="C100">
-        <v>0.01095335120382896</v>
+        <v>0.01185857752377302</v>
       </c>
       <c r="D100">
-        <v>0.0273681196186149</v>
+        <v>0.02989254485491756</v>
       </c>
       <c r="E100">
-        <v>0.0547357603035178</v>
+        <v>0.05978464132838802</v>
       </c>
       <c r="F100">
-        <v>0.8250828358867237</v>
+        <v>0.8283621397486624</v>
       </c>
       <c r="G100">
-        <v>0.04026915435813606</v>
+        <v>0.03926144874077174</v>
       </c>
       <c r="H100">
-        <v>0.01559747127397719</v>
-      </c>
-      <c r="I100">
-        <v>0.01310440015043843</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.01688653867566317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.2502489993982384</v>
+        <v>0.3653428916814931</v>
       </c>
       <c r="C101">
-        <v>0.1455199707203027</v>
+        <v>0.1560546905208103</v>
       </c>
       <c r="D101">
-        <v>5.361570728723335E-06</v>
+        <v>5.982237392501718E-06</v>
       </c>
       <c r="E101">
-        <v>5.361570728723335E-06</v>
+        <v>5.982237392501718E-06</v>
       </c>
       <c r="F101">
-        <v>2.660557190877356E-06</v>
+        <v>2.987264060271104E-06</v>
       </c>
       <c r="G101">
-        <v>0.1916629722528526</v>
+        <v>0.2248759038992478</v>
       </c>
       <c r="H101">
-        <v>0.1618913592477207</v>
-      </c>
-      <c r="I101">
-        <v>0.2506633146822371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.2537115621596035</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.009520988897504542</v>
+        <v>0.009124264851211053</v>
       </c>
       <c r="C102">
-        <v>0.006709420614356264</v>
+        <v>0.007597202298180759</v>
       </c>
       <c r="D102">
-        <v>0.01105697019892315</v>
+        <v>0.0128367630770093</v>
       </c>
       <c r="E102">
-        <v>0.04422730031491555</v>
+        <v>0.05134647466236341</v>
       </c>
       <c r="F102">
-        <v>0.8984583078363951</v>
+        <v>0.8996281688888892</v>
       </c>
       <c r="G102">
-        <v>0.01015482530642699</v>
+        <v>0.01071579035032501</v>
       </c>
       <c r="H102">
-        <v>0.008508641404625145</v>
-      </c>
-      <c r="I102">
-        <v>0.01136354542685316</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.008751335872021301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.3756866959632835</v>
+        <v>0.3673530710321489</v>
       </c>
       <c r="C103">
-        <v>0.2542458717284597</v>
+        <v>0.294765176908567</v>
       </c>
       <c r="D103">
-        <v>2.40696145913E-05</v>
+        <v>2.486557818834469E-05</v>
       </c>
       <c r="E103">
-        <v>2.40696145913E-05</v>
+        <v>2.486557818834469E-05</v>
       </c>
       <c r="F103">
-        <v>3.502802294788091E-06</v>
+        <v>4.01149182456495E-06</v>
       </c>
       <c r="G103">
-        <v>0.1302238838914638</v>
+        <v>0.1619204290256739</v>
       </c>
       <c r="H103">
-        <v>0.1313142935525569</v>
-      </c>
-      <c r="I103">
-        <v>0.1084776128327586</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.175907580385409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.3756866959632835</v>
+        <v>0.3673530710321489</v>
       </c>
       <c r="C104">
-        <v>0.2542458717284597</v>
+        <v>0.294765176908567</v>
       </c>
       <c r="D104">
-        <v>2.40696145913E-05</v>
+        <v>2.486557818834469E-05</v>
       </c>
       <c r="E104">
-        <v>2.40696145913E-05</v>
+        <v>2.486557818834469E-05</v>
       </c>
       <c r="F104">
-        <v>3.502802294788091E-06</v>
+        <v>4.01149182456495E-06</v>
       </c>
       <c r="G104">
-        <v>0.1302238838914638</v>
+        <v>0.1619204290256739</v>
       </c>
       <c r="H104">
-        <v>0.1313142935525569</v>
-      </c>
-      <c r="I104">
-        <v>0.1084776128327586</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.175907580385409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01297791374881044</v>
+        <v>0.01400585663388674</v>
       </c>
       <c r="C105">
-        <v>0.01284858865004162</v>
+        <v>0.01386628728012956</v>
       </c>
       <c r="D105">
-        <v>0.02737094581351029</v>
+        <v>0.02980712413803472</v>
       </c>
       <c r="E105">
-        <v>0.05474141264385105</v>
+        <v>0.05961380117591387</v>
       </c>
       <c r="F105">
-        <v>0.8209086632848271</v>
+        <v>0.8253588637725189</v>
       </c>
       <c r="G105">
-        <v>0.04137702226279905</v>
+        <v>0.04030561702173475</v>
       </c>
       <c r="H105">
-        <v>0.01579162409100465</v>
-      </c>
-      <c r="I105">
-        <v>0.01398382950515579</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.01704244997778161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1935108902652611</v>
+        <v>0.2506570772626918</v>
       </c>
       <c r="C106">
-        <v>0.1790523366150194</v>
+        <v>0.1929007643548998</v>
       </c>
       <c r="D106">
-        <v>4.934059393059643E-06</v>
+        <v>4.562096417149444E-06</v>
       </c>
       <c r="E106">
-        <v>4.934059393059643E-06</v>
+        <v>4.562096417149444E-06</v>
       </c>
       <c r="F106">
-        <v>4.64870756799613E-06</v>
+        <v>4.300909071719656E-06</v>
       </c>
       <c r="G106">
-        <v>0.2526797803389408</v>
+        <v>0.2528463154883363</v>
       </c>
       <c r="H106">
-        <v>0.239905264820868</v>
-      </c>
-      <c r="I106">
-        <v>0.1348372111335565</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.3035824177921662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.007382654441131425</v>
+        <v>0.006962690652126033</v>
       </c>
       <c r="C107">
-        <v>0.00774631456282632</v>
+        <v>0.008530509223717056</v>
       </c>
       <c r="D107">
-        <v>0.0103325842360662</v>
+        <v>0.01184085884646657</v>
       </c>
       <c r="E107">
-        <v>0.1457097201508937</v>
+        <v>0.1673169971569138</v>
       </c>
       <c r="F107">
-        <v>0.7908130282171461</v>
+        <v>0.771706902799809</v>
       </c>
       <c r="G107">
-        <v>0.01774765403108111</v>
+        <v>0.01697210127134886</v>
       </c>
       <c r="H107">
-        <v>0.01594764777162146</v>
-      </c>
-      <c r="I107">
-        <v>0.004320396589233651</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.01666994004961873</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.184675430458812</v>
+        <v>0.2239909728695731</v>
       </c>
       <c r="C108">
-        <v>0.435200114647274</v>
+        <v>0.5181602141926114</v>
       </c>
       <c r="D108">
-        <v>1.842103591399747E-05</v>
+        <v>1.955009685828893E-05</v>
       </c>
       <c r="E108">
-        <v>1.842103591399747E-05</v>
+        <v>1.955009685828893E-05</v>
       </c>
       <c r="F108">
-        <v>2.625664197783312E-06</v>
+        <v>3.087929621901868E-06</v>
       </c>
       <c r="G108">
-        <v>0.09761447003128475</v>
+        <v>0.1246416323517405</v>
       </c>
       <c r="H108">
-        <v>0.09678620602832964</v>
-      </c>
-      <c r="I108">
-        <v>0.1856843110982739</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1331649924627366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.00158926812351789</v>
+        <v>0.001818878459387657</v>
       </c>
       <c r="C109">
-        <v>0.006890026219632703</v>
+        <v>0.007225108612674305</v>
       </c>
       <c r="D109">
-        <v>0.005035067140330465</v>
+        <v>0.005749758101539285</v>
       </c>
       <c r="E109">
-        <v>0.1491337817314938</v>
+        <v>0.1471808355323692</v>
       </c>
       <c r="F109">
-        <v>0.8238313832892538</v>
+        <v>0.8255399981608815</v>
       </c>
       <c r="G109">
-        <v>0.005903824628110898</v>
+        <v>0.006147434227365339</v>
       </c>
       <c r="H109">
-        <v>0.005986256906720463</v>
-      </c>
-      <c r="I109">
-        <v>0.001630391960940042</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.006337986905782662</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.006444818239939091</v>
+        <v>0.006071262066906552</v>
       </c>
       <c r="C110">
-        <v>0.01614436766512874</v>
+        <v>0.01542990295223663</v>
       </c>
       <c r="D110">
-        <v>0.02804873562412355</v>
+        <v>0.02221242999514298</v>
       </c>
       <c r="E110">
-        <v>0.1503119688902841</v>
+        <v>0.1419891682175163</v>
       </c>
       <c r="F110">
-        <v>0.7043431825270418</v>
+        <v>0.758578241819383</v>
       </c>
       <c r="G110">
-        <v>0.04085086914622319</v>
+        <v>0.04350421561629171</v>
       </c>
       <c r="H110">
-        <v>0.01413284223622781</v>
-      </c>
-      <c r="I110">
-        <v>0.03972321567103177</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.01221477933252292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.009801674228307017</v>
+        <v>0.009356244876530966</v>
       </c>
       <c r="C111">
-        <v>0.006801776211869298</v>
+        <v>0.007689361169140626</v>
       </c>
       <c r="D111">
-        <v>0.01139090340355838</v>
+        <v>0.01320533613278983</v>
       </c>
       <c r="E111">
-        <v>0.04556301560227003</v>
+        <v>0.05282075029994681</v>
       </c>
       <c r="F111">
-        <v>0.8930628422191184</v>
+        <v>0.8947840647586655</v>
       </c>
       <c r="G111">
-        <v>0.0108543575657621</v>
+        <v>0.0118512141383654</v>
       </c>
       <c r="H111">
-        <v>0.01055464748279043</v>
-      </c>
-      <c r="I111">
-        <v>0.01197078328632438</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.01029302862456081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.3024225473205527</v>
+        <v>0.3641593857028328</v>
       </c>
       <c r="C112">
-        <v>0.2581367056631148</v>
+        <v>0.3108327223080283</v>
       </c>
       <c r="D112">
-        <v>4.382582336576876E-06</v>
+        <v>5.658326298782942E-06</v>
       </c>
       <c r="E112">
-        <v>4.382582336576876E-06</v>
+        <v>5.658326298782942E-06</v>
       </c>
       <c r="F112">
-        <v>1.715889220947843E-05</v>
+        <v>2.118633506980049E-05</v>
       </c>
       <c r="G112">
-        <v>0.07976669774632328</v>
+        <v>0.08684460847504571</v>
       </c>
       <c r="H112">
-        <v>0.1977604046354</v>
-      </c>
-      <c r="I112">
-        <v>0.1618877205777265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.2381307805264256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.009752734265964336</v>
+        <v>0.009298842822451251</v>
       </c>
       <c r="C113">
-        <v>0.007421580036518734</v>
+        <v>0.007834845994038062</v>
       </c>
       <c r="D113">
-        <v>0.02270808476590778</v>
+        <v>0.02624840890816315</v>
       </c>
       <c r="E113">
-        <v>0.05676995645073181</v>
+        <v>0.06562077619311235</v>
       </c>
       <c r="F113">
-        <v>0.87093974334686</v>
+        <v>0.8694966169416802</v>
       </c>
       <c r="G113">
-        <v>0.009668933290944454</v>
+        <v>0.01054298288031461</v>
       </c>
       <c r="H113">
-        <v>0.01121133998258901</v>
-      </c>
-      <c r="I113">
-        <v>0.01152762786048397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.01095752626024036</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01326888396770222</v>
+        <v>0.01432593426837897</v>
       </c>
       <c r="C114">
-        <v>0.01448773028156222</v>
+        <v>0.01564188583045642</v>
       </c>
       <c r="D114">
-        <v>0.02704223448473256</v>
+        <v>0.02955644782782171</v>
       </c>
       <c r="E114">
-        <v>0.05408399573864318</v>
+        <v>0.05911245231557611</v>
       </c>
       <c r="F114">
-        <v>0.8191006485196617</v>
+        <v>0.82404616560597</v>
       </c>
       <c r="G114">
-        <v>0.04130654757763486</v>
+        <v>0.04025399105331702</v>
       </c>
       <c r="H114">
-        <v>0.01580409317452158</v>
-      </c>
-      <c r="I114">
-        <v>0.01490586625554175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.01706312309847972</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01496097563078136</v>
+        <v>0.01617772193856761</v>
       </c>
       <c r="C115">
-        <v>0.01472521842451886</v>
+        <v>0.01592278980011994</v>
       </c>
       <c r="D115">
-        <v>0.02748552062589833</v>
+        <v>0.03008723571464547</v>
       </c>
       <c r="E115">
-        <v>0.054970560263603</v>
+        <v>0.06017402012752475</v>
       </c>
       <c r="F115">
-        <v>0.8127145766332255</v>
+        <v>0.8171873867117477</v>
       </c>
       <c r="G115">
-        <v>0.0419836595258499</v>
+        <v>0.04097689019759152</v>
       </c>
       <c r="H115">
-        <v>0.01800928026069224</v>
-      </c>
-      <c r="I115">
-        <v>0.01515020863543088</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.01947395550980306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2756534277509393</v>
+        <v>0.3311041398629575</v>
       </c>
       <c r="C116">
-        <v>0.2776013521164553</v>
+        <v>0.3334439216238583</v>
       </c>
       <c r="D116">
-        <v>3.478642837100322E-06</v>
+        <v>4.402539349727415E-06</v>
       </c>
       <c r="E116">
-        <v>3.478642837100322E-06</v>
+        <v>4.402539349727415E-06</v>
       </c>
       <c r="F116">
-        <v>5.048380066093062E-06</v>
+        <v>6.542791065284961E-06</v>
       </c>
       <c r="G116">
-        <v>0.06807175008395495</v>
+        <v>0.07379299048159661</v>
       </c>
       <c r="H116">
-        <v>0.2178258645197269</v>
-      </c>
-      <c r="I116">
-        <v>0.1608355998631832</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.2616436001618229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.2723763894223544</v>
+        <v>0.3311041398629575</v>
       </c>
       <c r="C117">
-        <v>0.2743011563656716</v>
+        <v>0.3334439216238583</v>
       </c>
       <c r="D117">
-        <v>3.347361342733031E-06</v>
+        <v>4.402539349727415E-06</v>
       </c>
       <c r="E117">
-        <v>3.347361342733031E-06</v>
+        <v>4.402539349727415E-06</v>
       </c>
       <c r="F117">
-        <v>4.988363634921386E-06</v>
+        <v>6.542791065284961E-06</v>
       </c>
       <c r="G117">
-        <v>0.06726249573896445</v>
+        <v>0.07379299048159661</v>
       </c>
       <c r="H117">
-        <v>0.2152362950272944</v>
-      </c>
-      <c r="I117">
-        <v>0.1708119803593948</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.2616436001618229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.01509637823719235</v>
+        <v>0.01634372346866334</v>
       </c>
       <c r="C118">
-        <v>0.01489107541206879</v>
+        <v>0.01612145629843104</v>
       </c>
       <c r="D118">
-        <v>0.02761758382771594</v>
+        <v>0.03034139623417846</v>
       </c>
       <c r="E118">
-        <v>0.05523468435617262</v>
+        <v>0.06068233735424013</v>
       </c>
       <c r="F118">
-        <v>0.8091700592999007</v>
+        <v>0.813804314294582</v>
       </c>
       <c r="G118">
-        <v>0.0432375694175569</v>
+        <v>0.04235504661540691</v>
       </c>
       <c r="H118">
-        <v>0.01879847327631803</v>
-      </c>
-      <c r="I118">
-        <v>0.01595417617307458</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.02035172573449811</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.01550980805882286</v>
+        <v>0.01680846258236025</v>
       </c>
       <c r="C119">
-        <v>0.01486915677426666</v>
+        <v>0.01611416545755535</v>
       </c>
       <c r="D119">
-        <v>0.0277212180743895</v>
+        <v>0.03048635219390356</v>
       </c>
       <c r="E119">
-        <v>0.05544195103595216</v>
+        <v>0.06097224709938354</v>
       </c>
       <c r="F119">
-        <v>0.8046084544712155</v>
+        <v>0.8094084759410859</v>
       </c>
       <c r="G119">
-        <v>0.04620254529275407</v>
+        <v>0.04484324267616976</v>
       </c>
       <c r="H119">
-        <v>0.01971617356845582</v>
-      </c>
-      <c r="I119">
-        <v>0.01593069272414345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.02136705404954156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002074639942491248</v>
+        <v>0.001841650564205941</v>
       </c>
       <c r="C120">
-        <v>0.02183547960309618</v>
+        <v>0.03237872768774411</v>
       </c>
       <c r="D120">
-        <v>0.134138958184529</v>
+        <v>0.1339491594573841</v>
       </c>
       <c r="E120">
-        <v>0.134138958184529</v>
+        <v>0.1339491594573841</v>
       </c>
       <c r="F120">
-        <v>0.6142818427938932</v>
+        <v>0.6580662537880703</v>
       </c>
       <c r="G120">
-        <v>0.0365285055788472</v>
+        <v>0.03696432132527342</v>
       </c>
       <c r="H120">
-        <v>0.00325445059718333</v>
-      </c>
-      <c r="I120">
-        <v>0.05374716511543091</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.002850727719938231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.00156666037737143</v>
+        <v>0.001790434634904617</v>
       </c>
       <c r="C121">
-        <v>0.008242204965326431</v>
+        <v>0.008757823682315643</v>
       </c>
       <c r="D121">
-        <v>0.004598797318936081</v>
+        <v>0.005254171065024226</v>
       </c>
       <c r="E121">
-        <v>0.1599534757361657</v>
+        <v>0.1593654060493653</v>
       </c>
       <c r="F121">
-        <v>0.8137541196139816</v>
+        <v>0.8142767599085309</v>
       </c>
       <c r="G121">
-        <v>0.005019461591770085</v>
+        <v>0.005136465259071125</v>
       </c>
       <c r="H121">
-        <v>0.00518374283548004</v>
-      </c>
-      <c r="I121">
-        <v>0.001681537560968659</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.005418939400788188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.002509864202295311</v>
+        <v>0.002261597236115737</v>
       </c>
       <c r="C122">
-        <v>0.008214218927523493</v>
+        <v>0.008291241447240395</v>
       </c>
       <c r="D122">
-        <v>0.00505459138344415</v>
+        <v>0.005237192025506065</v>
       </c>
       <c r="E122">
-        <v>0.1658103164766399</v>
+        <v>0.1577926475438901</v>
       </c>
       <c r="F122">
-        <v>0.7992179169919881</v>
+        <v>0.8143639196073738</v>
       </c>
       <c r="G122">
-        <v>0.006593433897398773</v>
+        <v>0.006168130249216425</v>
       </c>
       <c r="H122">
-        <v>0.006621692182580604</v>
-      </c>
-      <c r="I122">
-        <v>0.005977965938129659</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.005885271890657366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0110310533087689</v>
+        <v>0.01076246299459046</v>
       </c>
       <c r="C123">
-        <v>0.006586706589289138</v>
+        <v>0.006808704750710991</v>
       </c>
       <c r="D123">
-        <v>0.02264596122078801</v>
+        <v>0.02611191943422138</v>
       </c>
       <c r="E123">
-        <v>0.05661464828681703</v>
+        <v>0.06527955378783874</v>
       </c>
       <c r="F123">
-        <v>0.8703824275916219</v>
+        <v>0.8679487545982428</v>
       </c>
       <c r="G123">
-        <v>0.00928152800447868</v>
+        <v>0.01056073292142821</v>
       </c>
       <c r="H123">
-        <v>0.01258346586690393</v>
-      </c>
-      <c r="I123">
-        <v>0.01087420913133248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.01252787151296728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.01828013447099084</v>
+        <v>0.01983104639191561</v>
       </c>
       <c r="C124">
-        <v>0.01640435645269369</v>
+        <v>0.01779611652070063</v>
       </c>
       <c r="D124">
-        <v>0.02667434697651194</v>
+        <v>0.02948829714301835</v>
       </c>
       <c r="E124">
-        <v>0.05334822716012065</v>
+        <v>0.05897615196821433</v>
       </c>
       <c r="F124">
-        <v>0.7973731364974304</v>
+        <v>0.8028119241531527</v>
       </c>
       <c r="G124">
-        <v>0.04787287095156448</v>
+        <v>0.04620323828114112</v>
       </c>
       <c r="H124">
-        <v>0.02294640062023826</v>
-      </c>
-      <c r="I124">
-        <v>0.01710052687044971</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.02489322554185737</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.01370581410832532</v>
+        <v>0.01192472467604898</v>
       </c>
       <c r="C125">
-        <v>0.08613433127882175</v>
+        <v>0.09084393585863859</v>
       </c>
       <c r="D125">
-        <v>0.2058001965053533</v>
+        <v>0.2299037146611531</v>
       </c>
       <c r="E125">
-        <v>0.2058001965053533</v>
+        <v>0.2299037146611531</v>
       </c>
       <c r="F125">
-        <v>0.1337027021544888</v>
+        <v>0.1394151487051062</v>
       </c>
       <c r="G125">
-        <v>0.1453452507831039</v>
+        <v>0.1434292974616517</v>
       </c>
       <c r="H125">
-        <v>0.1261437939604362</v>
-      </c>
-      <c r="I125">
-        <v>0.08336771470411743</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1545794639762484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.02514329169544438</v>
+        <v>0.02733972579597276</v>
       </c>
       <c r="C126">
-        <v>0.00974377807318301</v>
+        <v>0.01080315910489302</v>
       </c>
       <c r="D126">
-        <v>0.03708989542844514</v>
+        <v>0.03978496261638779</v>
       </c>
       <c r="E126">
-        <v>0.1486028812806755</v>
+        <v>0.1675232685331136</v>
       </c>
       <c r="F126">
-        <v>0.7074427823882784</v>
+        <v>0.6954573890652683</v>
       </c>
       <c r="G126">
-        <v>0.03108305713777858</v>
+        <v>0.03115709570451264</v>
       </c>
       <c r="H126">
-        <v>0.02775841969343921</v>
-      </c>
-      <c r="I126">
-        <v>0.01313589430275579</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.02793439917985189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.2907717017033011</v>
+        <v>0.3498621849411985</v>
       </c>
       <c r="C127">
-        <v>0.2510136929996256</v>
+        <v>0.30202439535291</v>
       </c>
       <c r="D127">
-        <v>2.017100299155343E-06</v>
+        <v>2.569602481669026E-06</v>
       </c>
       <c r="E127">
-        <v>2.017100299155343E-06</v>
+        <v>2.569602481669026E-06</v>
       </c>
       <c r="F127">
-        <v>4.197072321125458E-06</v>
+        <v>5.448797650684239E-06</v>
       </c>
       <c r="G127">
-        <v>0.05481128684406809</v>
+        <v>0.05914122184734324</v>
       </c>
       <c r="H127">
-        <v>0.2401572060266119</v>
-      </c>
-      <c r="I127">
-        <v>0.1632378811534739</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.2889616098559341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.01187121787093473</v>
+        <v>0.01167625927583221</v>
       </c>
       <c r="C128">
-        <v>0.00972535437529078</v>
+        <v>0.01059485106189838</v>
       </c>
       <c r="D128">
-        <v>0.06397815730267215</v>
+        <v>0.05953282415912104</v>
       </c>
       <c r="E128">
-        <v>0.1308406403319531</v>
+        <v>0.1223831505314915</v>
       </c>
       <c r="F128">
-        <v>0.7160088487515164</v>
+        <v>0.7518032175167806</v>
       </c>
       <c r="G128">
-        <v>0.02726419937421234</v>
+        <v>0.02833057419009194</v>
       </c>
       <c r="H128">
-        <v>0.01735154100638902</v>
-      </c>
-      <c r="I128">
-        <v>0.0229600409870315</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.01567912326478435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.01255903115460751</v>
+        <v>0.01215462291570658</v>
       </c>
       <c r="C129">
-        <v>0.006908150819355673</v>
+        <v>0.007195507077300899</v>
       </c>
       <c r="D129">
-        <v>0.02370280006960952</v>
+        <v>0.02745960900334979</v>
       </c>
       <c r="E129">
-        <v>0.05925673351952292</v>
+        <v>0.06864876507614902</v>
       </c>
       <c r="F129">
-        <v>0.8596050312662811</v>
+        <v>0.8552571773687094</v>
       </c>
       <c r="G129">
-        <v>0.01397653237261591</v>
+        <v>0.01604672887497277</v>
       </c>
       <c r="H129">
-        <v>0.01319386492362295</v>
-      </c>
-      <c r="I129">
-        <v>0.01079785587438444</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.01323758968381159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.01116754452860225</v>
+        <v>0.01163253731877957</v>
       </c>
       <c r="C130">
-        <v>0.01314677180858818</v>
+        <v>0.0132741966441799</v>
       </c>
       <c r="D130">
-        <v>0.03509749190793676</v>
+        <v>0.03951697005152078</v>
       </c>
       <c r="E130">
-        <v>0.1788608259319182</v>
+        <v>0.1789670927601321</v>
       </c>
       <c r="F130">
-        <v>0.6667486267093554</v>
+        <v>0.6722532591684089</v>
       </c>
       <c r="G130">
-        <v>0.04373652983450847</v>
+        <v>0.0456499618941875</v>
       </c>
       <c r="H130">
-        <v>0.03608933509581973</v>
-      </c>
-      <c r="I130">
-        <v>0.01515287418327102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.03870598216279111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.2082809338529188</v>
+        <v>0.263721737331552</v>
       </c>
       <c r="C131">
-        <v>0.4014258305919878</v>
+        <v>0.498946810574985</v>
       </c>
       <c r="D131">
-        <v>2.553898866150567E-06</v>
+        <v>3.299220613029619E-06</v>
       </c>
       <c r="E131">
-        <v>2.553898866150567E-06</v>
+        <v>3.299220613029619E-06</v>
       </c>
       <c r="F131">
-        <v>1.678641525336508E-06</v>
+        <v>2.060909133028327E-06</v>
       </c>
       <c r="G131">
-        <v>0.0624069532602712</v>
+        <v>0.0831868306347768</v>
       </c>
       <c r="H131">
-        <v>0.09748750434813823</v>
-      </c>
-      <c r="I131">
-        <v>0.2303919915074262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.154135962108327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.01417560423960566</v>
+        <v>0.01369768720958146</v>
       </c>
       <c r="C132">
-        <v>0.007789085514094008</v>
+        <v>0.008045143195311216</v>
       </c>
       <c r="D132">
-        <v>0.02486397773447162</v>
+        <v>0.02835390737808836</v>
       </c>
       <c r="E132">
-        <v>0.06215966461852742</v>
+        <v>0.07088450262900056</v>
       </c>
       <c r="F132">
-        <v>0.8458813883397396</v>
+        <v>0.8450501915235251</v>
       </c>
       <c r="G132">
-        <v>0.01740177616289618</v>
+        <v>0.01969911252843552</v>
       </c>
       <c r="H132">
-        <v>0.0143649926454328</v>
-      </c>
-      <c r="I132">
-        <v>0.01336351074523266</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.01426945553605768</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.2754586233320213</v>
+        <v>0.3367713472022454</v>
       </c>
       <c r="C133">
-        <v>0.2456266962322611</v>
+        <v>0.3002991703959212</v>
       </c>
       <c r="D133">
-        <v>1.801829351508179E-06</v>
+        <v>2.304687917912377E-06</v>
       </c>
       <c r="E133">
-        <v>1.801829351508179E-06</v>
+        <v>2.304687917912377E-06</v>
       </c>
       <c r="F133">
-        <v>3.976039472994647E-06</v>
+        <v>5.244919298042371E-06</v>
       </c>
       <c r="G133">
-        <v>0.04721136247400372</v>
+        <v>0.0569283272499545</v>
       </c>
       <c r="H133">
-        <v>0.2502824978821418</v>
-      </c>
-      <c r="I133">
-        <v>0.1814132403813961</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.3059913008567452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.01234435491025617</v>
+        <v>0.01193765517951274</v>
       </c>
       <c r="C134">
-        <v>0.01063873492535082</v>
+        <v>0.01153372192880743</v>
       </c>
       <c r="D134">
-        <v>0.06682210170155246</v>
+        <v>0.06187583095663104</v>
       </c>
       <c r="E134">
-        <v>0.1366567426066341</v>
+        <v>0.1271997295808837</v>
       </c>
       <c r="F134">
-        <v>0.6893228112916062</v>
+        <v>0.7235353279348048</v>
       </c>
       <c r="G134">
-        <v>0.04371087340363661</v>
+        <v>0.04679110293305554</v>
       </c>
       <c r="H134">
-        <v>0.01915334059073286</v>
-      </c>
-      <c r="I134">
-        <v>0.02135104057023089</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.01712663148630468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.02193004715547139</v>
+        <v>0.02403856293525239</v>
       </c>
       <c r="C135">
-        <v>0.01901820881678737</v>
+        <v>0.02084674698996221</v>
       </c>
       <c r="D135">
-        <v>0.02915688446381341</v>
+        <v>0.0329870329385692</v>
       </c>
       <c r="E135">
-        <v>0.08746963291834225</v>
+        <v>0.09896010921956337</v>
       </c>
       <c r="F135">
-        <v>0.7357042124329239</v>
+        <v>0.7387325052754827</v>
       </c>
       <c r="G135">
-        <v>0.05538194586526779</v>
+        <v>0.05422385622343458</v>
       </c>
       <c r="H135">
-        <v>0.02756122452115788</v>
-      </c>
-      <c r="I135">
-        <v>0.02377784382623606</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.03021118641773542</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1299917121873451</v>
+        <v>0.1566319239307957</v>
       </c>
       <c r="C136">
-        <v>0.1239104858615177</v>
+        <v>0.1411551959291267</v>
       </c>
       <c r="D136">
-        <v>3.150363473835249E-06</v>
+        <v>3.765574177285626E-06</v>
       </c>
       <c r="E136">
-        <v>3.150363473835249E-06</v>
+        <v>3.765574177285626E-06</v>
       </c>
       <c r="F136">
-        <v>3.668896229560504E-06</v>
+        <v>4.027987127403256E-06</v>
       </c>
       <c r="G136">
-        <v>0.5402865750437242</v>
+        <v>0.5978819488294285</v>
       </c>
       <c r="H136">
-        <v>0.0925995991906316</v>
-      </c>
-      <c r="I136">
-        <v>0.1132016580936041</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1043193721751672</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1611229497835558</v>
+        <v>0.2674197882849399</v>
       </c>
       <c r="C137">
-        <v>0.3604128294010611</v>
+        <v>0.4800453784707257</v>
       </c>
       <c r="D137">
-        <v>1.457123912436318E-06</v>
+        <v>2.241302301091923E-06</v>
       </c>
       <c r="E137">
-        <v>1.457123912436318E-06</v>
+        <v>2.241302301091923E-06</v>
       </c>
       <c r="F137">
-        <v>1.425174474539544E-06</v>
+        <v>1.875002642104653E-06</v>
       </c>
       <c r="G137">
-        <v>0.0641658816245573</v>
+        <v>0.09352393228273222</v>
       </c>
       <c r="H137">
-        <v>0.09379453691398656</v>
-      </c>
-      <c r="I137">
-        <v>0.3204994628545399</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1590045433543578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.01925427819703649</v>
+        <v>0.02042007668772043</v>
       </c>
       <c r="C138">
-        <v>0.006582901469940655</v>
+        <v>0.00683996261268463</v>
       </c>
       <c r="D138">
-        <v>0.01640200901472746</v>
+        <v>0.01849331988843616</v>
       </c>
       <c r="E138">
-        <v>0.1778094188969881</v>
+        <v>0.1801167603711295</v>
       </c>
       <c r="F138">
-        <v>0.7249935628954948</v>
+        <v>0.7293354716034297</v>
       </c>
       <c r="G138">
-        <v>0.02210694387343376</v>
+        <v>0.0222343916277436</v>
       </c>
       <c r="H138">
-        <v>0.02055304319988474</v>
-      </c>
-      <c r="I138">
-        <v>0.01229784245249393</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.02256001720885588</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1225078013129272</v>
+        <v>0.1517233175897638</v>
       </c>
       <c r="C139">
-        <v>0.1150971257025897</v>
+        <v>0.1346266428270107</v>
       </c>
       <c r="D139">
-        <v>2.530898888457445E-06</v>
+        <v>3.333356495173503E-06</v>
       </c>
       <c r="E139">
-        <v>2.530898888457445E-06</v>
+        <v>3.333356495173503E-06</v>
       </c>
       <c r="F139">
-        <v>3.457669744983192E-06</v>
+        <v>3.901756135285059E-06</v>
       </c>
       <c r="G139">
-        <v>0.5280563732022037</v>
+        <v>0.6045464688071751</v>
       </c>
       <c r="H139">
-        <v>0.09452080795725647</v>
-      </c>
-      <c r="I139">
-        <v>0.139809372357501</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1090930023069247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01318542949860528</v>
+        <v>0.01066742198893873</v>
       </c>
       <c r="C140">
-        <v>0.1077515382840628</v>
+        <v>0.1083735622315534</v>
       </c>
       <c r="D140">
-        <v>0.1591886434292972</v>
+        <v>0.2264714170212253</v>
       </c>
       <c r="E140">
-        <v>0.1591886434292972</v>
+        <v>0.2264714170212253</v>
       </c>
       <c r="F140">
-        <v>0.1422730959866986</v>
+        <v>0.1400935164831277</v>
       </c>
       <c r="G140">
-        <v>0.1632709204529401</v>
+        <v>0.1532616650743661</v>
       </c>
       <c r="H140">
-        <v>0.1172179236870093</v>
-      </c>
-      <c r="I140">
-        <v>0.1379238052320896</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1346610001795633</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1969778874482724</v>
+        <v>0.3298830997654082</v>
       </c>
       <c r="C141">
-        <v>0.1638842341185224</v>
+        <v>0.2062164326615885</v>
       </c>
       <c r="D141">
-        <v>4.889390404620477E-06</v>
+        <v>7.951262456229598E-06</v>
       </c>
       <c r="E141">
-        <v>4.889390404620477E-06</v>
+        <v>7.951262456229598E-06</v>
       </c>
       <c r="F141">
-        <v>2.532534958999479E-06</v>
+        <v>3.261903376446317E-06</v>
       </c>
       <c r="G141">
-        <v>0.1957427735435891</v>
+        <v>0.2661723267468888</v>
       </c>
       <c r="H141">
-        <v>0.1063789165372228</v>
-      </c>
-      <c r="I141">
-        <v>0.337003877036625</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.1977089763978256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1418475813945839</v>
+        <v>0.252843760215698</v>
       </c>
       <c r="C142">
-        <v>0.3137723227065531</v>
+        <v>0.4488392436825812</v>
       </c>
       <c r="D142">
-        <v>9.635305529993996E-07</v>
+        <v>1.683017827554059E-06</v>
       </c>
       <c r="E142">
-        <v>9.635305529993996E-07</v>
+        <v>1.683017827554059E-06</v>
       </c>
       <c r="F142">
-        <v>1.240744692361518E-06</v>
+        <v>1.753115029387612E-06</v>
       </c>
       <c r="G142">
-        <v>0.06257814537568453</v>
+        <v>0.0989521187674556</v>
       </c>
       <c r="H142">
-        <v>0.1093824221303206</v>
-      </c>
-      <c r="I142">
-        <v>0.3724163605870596</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1993597581835807</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.2381703320511402</v>
+        <v>0.3092578915808624</v>
       </c>
       <c r="C143">
-        <v>0.2353546100235039</v>
+        <v>0.305601738090609</v>
       </c>
       <c r="D143">
-        <v>9.618598912688505E-07</v>
+        <v>1.431854555523808E-06</v>
       </c>
       <c r="E143">
-        <v>9.618598912688505E-07</v>
+        <v>1.431854555523808E-06</v>
       </c>
       <c r="F143">
-        <v>3.222502826681516E-06</v>
+        <v>4.514770678025101E-06</v>
       </c>
       <c r="G143">
-        <v>0.04720563921194619</v>
+        <v>0.0642717396739928</v>
       </c>
       <c r="H143">
-        <v>0.2471064552488958</v>
-      </c>
-      <c r="I143">
-        <v>0.2321578172419049</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.3208612521747468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.01236878266554439</v>
+        <v>0.01192455538418425</v>
       </c>
       <c r="C144">
-        <v>0.009394796075031237</v>
+        <v>0.009926631743418238</v>
       </c>
       <c r="D144">
-        <v>0.07283631099621989</v>
+        <v>0.06783896649366059</v>
       </c>
       <c r="E144">
-        <v>0.1471559218012428</v>
+        <v>0.1373699536899613</v>
       </c>
       <c r="F144">
-        <v>0.6720146489254659</v>
+        <v>0.7051655776786036</v>
       </c>
       <c r="G144">
-        <v>0.04116469179772091</v>
+        <v>0.04395407963354651</v>
       </c>
       <c r="H144">
-        <v>0.02505961706182143</v>
-      </c>
-      <c r="I144">
-        <v>0.02000523067695341</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.02382023537662543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.02496839299676358</v>
+        <v>0.02743487969044168</v>
       </c>
       <c r="C145">
-        <v>0.02242440433048448</v>
+        <v>0.02463957553112117</v>
       </c>
       <c r="D145">
-        <v>0.02705384242441299</v>
+        <v>0.03099080870527172</v>
       </c>
       <c r="E145">
-        <v>0.0811605804053243</v>
+        <v>0.09297149640549966</v>
       </c>
       <c r="F145">
-        <v>0.7211308157965839</v>
+        <v>0.7253432340925533</v>
       </c>
       <c r="G145">
-        <v>0.06192316013843235</v>
+        <v>0.06163280130545069</v>
       </c>
       <c r="H145">
-        <v>0.03366190328441056</v>
-      </c>
-      <c r="I145">
-        <v>0.02767690062358803</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.03698720426966175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.2623731772460207</v>
+        <v>0.3404860536675239</v>
       </c>
       <c r="C146">
-        <v>0.2349402723870704</v>
+        <v>0.3048858025397763</v>
       </c>
       <c r="D146">
-        <v>5.809914465866016E-07</v>
+        <v>8.480850572549907E-07</v>
       </c>
       <c r="E146">
-        <v>5.809914465866016E-07</v>
+        <v>8.480850572549907E-07</v>
       </c>
       <c r="F146">
-        <v>2.074902611481818E-06</v>
+        <v>2.905243795258121E-06</v>
       </c>
       <c r="G146">
-        <v>0.02426277728228304</v>
+        <v>0.03451397433631253</v>
       </c>
       <c r="H146">
-        <v>0.2466714286963883</v>
-      </c>
-      <c r="I146">
-        <v>0.2317491075027332</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.3201095680424776</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1228467714182996</v>
+        <v>0.1494589350355911</v>
       </c>
       <c r="C147">
-        <v>0.1339116209692088</v>
+        <v>0.1562609915192111</v>
       </c>
       <c r="D147">
-        <v>1.711186372179638E-06</v>
+        <v>2.100346378592968E-06</v>
       </c>
       <c r="E147">
-        <v>1.711186372179638E-06</v>
+        <v>2.100346378592968E-06</v>
       </c>
       <c r="F147">
-        <v>3.070105062411519E-06</v>
+        <v>3.398640049437062E-06</v>
       </c>
       <c r="G147">
-        <v>0.4966485640012738</v>
+        <v>0.5632690227033892</v>
       </c>
       <c r="H147">
-        <v>0.1155689584607702</v>
-      </c>
-      <c r="I147">
-        <v>0.1310175926726406</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.131003451409002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.02295558593564919</v>
+        <v>0.02371688157741589</v>
       </c>
       <c r="C148">
-        <v>0.0156296702171319</v>
+        <v>0.0167290321478962</v>
       </c>
       <c r="D148">
-        <v>0.04002068132535812</v>
+        <v>0.04473820539949125</v>
       </c>
       <c r="E148">
-        <v>0.1886683899426928</v>
+        <v>0.1821203766470545</v>
       </c>
       <c r="F148">
-        <v>0.5545693340208118</v>
+        <v>0.5934175871728057</v>
       </c>
       <c r="G148">
-        <v>0.09825752105237952</v>
+        <v>0.0992274315390074</v>
       </c>
       <c r="H148">
-        <v>0.03880377684367494</v>
-      </c>
-      <c r="I148">
-        <v>0.04109504066230175</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.04005048551632905</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.007181358615430366</v>
+        <v>0.007630680334121339</v>
       </c>
       <c r="C149">
-        <v>0.00409555401963321</v>
+        <v>0.004353609529761692</v>
       </c>
       <c r="D149">
-        <v>0.02253452720818641</v>
+        <v>0.02481645118866765</v>
       </c>
       <c r="E149">
-        <v>0.08012613808193528</v>
+        <v>0.08824005820860335</v>
       </c>
       <c r="F149">
-        <v>0.8598369958624713</v>
+        <v>0.8546096603455297</v>
       </c>
       <c r="G149">
-        <v>0.01114790181142742</v>
+        <v>0.01175829547123384</v>
       </c>
       <c r="H149">
-        <v>0.007958470676390607</v>
-      </c>
-      <c r="I149">
-        <v>0.007119053724525276</v>
+        <v>0.008591244922082479</v>
       </c>
     </row>
   </sheetData>
